--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\commertial CC - workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C611B659-5B5B-46C6-88F2-373FDF20A37E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D43FD-38A0-460A-9311-833A3236716C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -25,18 +25,33 @@
     <sheet name="CC_CORP_TC009" sheetId="10" r:id="rId10"/>
     <sheet name="CC_CORP_TC010" sheetId="11" r:id="rId11"/>
     <sheet name="CC_CORP_TC011" sheetId="12" r:id="rId12"/>
+    <sheet name="CC_CORP_TC012" sheetId="13" r:id="rId13"/>
+    <sheet name="CC_CORP_TC013" sheetId="14" r:id="rId14"/>
+    <sheet name="CC_CORP_TC014" sheetId="16" r:id="rId15"/>
+    <sheet name="CC_CORP_TC015" sheetId="17" r:id="rId16"/>
+    <sheet name="CC_CORP_TC016" sheetId="20" r:id="rId17"/>
+    <sheet name="CC_CORP_TC017" sheetId="18" r:id="rId18"/>
+    <sheet name="CC_CORP_TC020" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="313">
   <si>
     <t>TestID</t>
   </si>
@@ -335,9 +350,6 @@
     <t>Memo_1</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>FromAccReview1</t>
   </si>
   <si>
@@ -389,9 +401,6 @@
     <t>Amt_1</t>
   </si>
   <si>
-    <t>4/15/2022</t>
-  </si>
-  <si>
     <t>AccountType1</t>
   </si>
   <si>
@@ -410,9 +419,6 @@
     <t>*3611 - DDA</t>
   </si>
   <si>
-    <t>10/29/2021</t>
-  </si>
-  <si>
     <t>CC_CORP_TC007</t>
   </si>
   <si>
@@ -506,18 +512,9 @@
     <t>EditTransferDate</t>
   </si>
   <si>
-    <t>10/27/2021</t>
-  </si>
-  <si>
-    <t>10/26/2021</t>
-  </si>
-  <si>
     <t>CC_CORP_TC009</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>Weekly</t>
   </si>
   <si>
@@ -632,12 +629,6 @@
     <t>Reminder</t>
   </si>
   <si>
-    <t>Series12</t>
-  </si>
-  <si>
-    <t>Series123</t>
-  </si>
-  <si>
     <t>CC_CORP_TC010</t>
   </si>
   <si>
@@ -647,9 +638,6 @@
     <t>Account Transfers</t>
   </si>
   <si>
-    <t>10/25/2021</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -675,6 +663,333 @@
   </si>
   <si>
     <t>Cancel payment</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC012</t>
+  </si>
+  <si>
+    <t>ACHCompany</t>
+  </si>
+  <si>
+    <t>DebitORCredit</t>
+  </si>
+  <si>
+    <t>BatchType</t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>CompanyDiscretionaryData</t>
+  </si>
+  <si>
+    <t>CompanyEntryDescription</t>
+  </si>
+  <si>
+    <t>OffsetAccount</t>
+  </si>
+  <si>
+    <t>CreatePayeeName</t>
+  </si>
+  <si>
+    <t>SearchPayeeName</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>CreatePayeeID</t>
+  </si>
+  <si>
+    <t>CreateBankID</t>
+  </si>
+  <si>
+    <t>CreateBankName</t>
+  </si>
+  <si>
+    <t>CreateDebitAuthType</t>
+  </si>
+  <si>
+    <t>Internet Auth (WEB)</t>
+  </si>
+  <si>
+    <t>ACH Test</t>
+  </si>
+  <si>
+    <t>Test DD</t>
+  </si>
+  <si>
+    <t>Test ED</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>CreateAccountNumber</t>
+  </si>
+  <si>
+    <t>State Street</t>
+  </si>
+  <si>
+    <t>Internet Authorization</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC013</t>
+  </si>
+  <si>
+    <t>UpdateExistingAmount</t>
+  </si>
+  <si>
+    <t>UpdateExistingAccount</t>
+  </si>
+  <si>
+    <t>RemoveExistingPayee</t>
+  </si>
+  <si>
+    <t>Update_CreatePayeeName</t>
+  </si>
+  <si>
+    <t>123||145</t>
+  </si>
+  <si>
+    <t>14433||1567</t>
+  </si>
+  <si>
+    <t>Update_ExistingTemplateName</t>
+  </si>
+  <si>
+    <t>Update_Amount</t>
+  </si>
+  <si>
+    <t>Update_CreatePayeeID</t>
+  </si>
+  <si>
+    <t>Update_CreateAccountNumber</t>
+  </si>
+  <si>
+    <t>Update_CreateBankID</t>
+  </si>
+  <si>
+    <t>Update_CreateBankName</t>
+  </si>
+  <si>
+    <t>Update_CreateDebitAuthType</t>
+  </si>
+  <si>
+    <t>Search_ExistingTemplateName</t>
+  </si>
+  <si>
+    <t>Search_ExistingBatchType</t>
+  </si>
+  <si>
+    <t>UpdateOnExistingPayee</t>
+  </si>
+  <si>
+    <t>Credit Only</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA N.A</t>
+  </si>
+  <si>
+    <t>011000206</t>
+  </si>
+  <si>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>Testing2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>011000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test (123) </t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>'BANK OF AMERICA N.A</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC014</t>
+  </si>
+  <si>
+    <t>ExistPaymentTemplate</t>
+  </si>
+  <si>
+    <t>PaymentDate</t>
+  </si>
+  <si>
+    <t>Test CD</t>
+  </si>
+  <si>
+    <t>Test CED</t>
+  </si>
+  <si>
+    <t>CreateNewPayeeName</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>ACH Payments</t>
+  </si>
+  <si>
+    <t>ACH Tester</t>
+  </si>
+  <si>
+    <t>PayeeName</t>
+  </si>
+  <si>
+    <t>Demo (324)</t>
+  </si>
+  <si>
+    <t>$45.00</t>
+  </si>
+  <si>
+    <t>12/21/2021</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC015</t>
+  </si>
+  <si>
+    <t>12/22/2021</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC016</t>
+  </si>
+  <si>
+    <t>011000206||011000028</t>
+  </si>
+  <si>
+    <t>JD1||Mathe</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA N.A||STATE STREET BOSTON</t>
+  </si>
+  <si>
+    <t>Internet Authorization||Physical Authorization</t>
+  </si>
+  <si>
+    <t>152||27</t>
+  </si>
+  <si>
+    <t>Confidential</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC020</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>1432</t>
+  </si>
+  <si>
+    <t>ACH Demo</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Addenda</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Update_SendRemittanceToPayee</t>
+  </si>
+  <si>
+    <t>SendRemittanceToPayee</t>
+  </si>
+  <si>
+    <t>12/27/2022</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>12/27/2021</t>
+  </si>
+  <si>
+    <t>12/29/2021</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>Series126</t>
+  </si>
+  <si>
+    <t>MemoEditReview</t>
+  </si>
+  <si>
+    <t>PaymentIstructionEditReview</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>Series111</t>
+  </si>
+  <si>
+    <t>01/06/2022</t>
+  </si>
+  <si>
+    <t>01/05/2022</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC017</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>tester (122)</t>
+  </si>
+  <si>
+    <t>1/06/2022</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>kim</t>
   </si>
 </sst>
 </file>
@@ -701,7 +1016,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +1026,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,6 +1075,11 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,561 +1396,545 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A97826-8FC6-49A5-BA9F-F29C9FFE4A4F}">
-  <dimension ref="A1:EC5"/>
+  <dimension ref="A1:DY5"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BF1" sqref="BF1"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="107" width="31.7109375" customWidth="1"/>
-    <col min="108" max="110" width="26.5703125" customWidth="1"/>
-    <col min="111" max="123" width="37.5703125" customWidth="1"/>
-    <col min="124" max="127" width="26.7109375" customWidth="1"/>
-    <col min="128" max="134" width="35.85546875" customWidth="1"/>
+    <col min="1" max="103" width="31.7109375" customWidth="1"/>
+    <col min="104" max="106" width="26.5703125" customWidth="1"/>
+    <col min="107" max="119" width="37.5703125" customWidth="1"/>
+    <col min="120" max="123" width="26.7109375" customWidth="1"/>
+    <col min="124" max="130" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AU1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>49</v>
+        <v>128</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CO1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DY1" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD2" t="s">
         <v>137</v>
       </c>
-      <c r="BE1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CE2" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>81</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>98</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="V3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y3" t="s">
         <v>115</v>
       </c>
-      <c r="CA1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="EC1" s="6" t="s">
-        <v>155</v>
-      </c>
     </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>10</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>81</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>98</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
       <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
       <c r="BL5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BP5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1633,235 +1943,224 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85603BC9-3C67-4E43-818E-912CA80B4A8C}">
-  <dimension ref="A1:BL2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="19" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="25" width="28.7109375" customWidth="1"/>
-    <col min="26" max="46" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="28.7109375" style="4" customWidth="1"/>
-    <col min="48" max="61" width="28.7109375" customWidth="1"/>
+    <col min="1" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="15" width="28.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="21" width="28.7109375" customWidth="1"/>
+    <col min="22" max="42" width="28.7109375" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="28.7109375" style="4" customWidth="1"/>
+    <col min="44" max="57" width="28.7109375" customWidth="1"/>
+    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1870,54 +2169,50 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>203</v>
+      <c r="P2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>59</v>
+        <v>289</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>95</v>
       </c>
       <c r="BB2" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="BC2" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="BE2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="BF2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="BG2" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1928,295 +2223,278 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079FEBA7-FD48-4110-BA2A-C0AE8E31B6C4}">
-  <dimension ref="A1:CG2"/>
+  <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="BO3" sqref="BO3"/>
+    <sheetView topLeftCell="BB1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="BD9" sqref="BD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="72" width="29.85546875" customWidth="1"/>
-    <col min="73" max="79" width="28.5703125" customWidth="1"/>
-    <col min="80" max="84" width="18.42578125" customWidth="1"/>
+    <col min="1" max="68" width="29.85546875" customWidth="1"/>
+    <col min="69" max="75" width="28.5703125" customWidth="1"/>
+    <col min="76" max="80" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>201</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2225,91 +2503,1367 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
       <c r="T2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B045698-DC01-420E-83B7-1C72FB099398}">
+  <dimension ref="A1:CE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT1" s="6"/>
+      <c r="CE1" s="6"/>
+    </row>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AT2" s="5"/>
+      <c r="AZ2" s="3"/>
+      <c r="BE2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B057EAC8-BCD6-4D50-8864-B54761932902}">
+  <dimension ref="A1:CG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="CG1" s="6"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="L2" s="2">
+        <v>123</v>
+      </c>
+      <c r="M2" s="2">
+        <v>14433</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="W2" t="s">
+        <v>251</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z2">
+        <v>45</v>
+      </c>
+      <c r="AA2">
+        <v>324</v>
+      </c>
+      <c r="AB2">
+        <v>7653</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV2" s="5"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7565FEA5-4C0B-4CAF-B7B8-125CCB71CB06}">
+  <dimension ref="A1:CF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU1" s="6"/>
+      <c r="CF1" s="6"/>
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="V2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="X2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AU2" s="5"/>
+      <c r="BA2" s="3"/>
+      <c r="BF2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7362DE-67A5-4BAF-8956-8A00370F26C9}">
+  <dimension ref="A1:CF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU1" s="6"/>
+      <c r="CF1" s="6"/>
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="V2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="X2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AU2" s="5"/>
+      <c r="BA2" s="3"/>
+      <c r="BF2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCDBD05-31AF-4457-A4AD-D016F640CCB6}">
+  <dimension ref="A1:CF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU1" s="6"/>
+      <c r="CF1" s="6"/>
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="V2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="X2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AU2" s="5"/>
+      <c r="BA2" s="3"/>
+      <c r="BF2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DFB32-C6CC-48F1-8D0E-016F9096C024}">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="W2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
+        <v>199</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="Z2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E11718-94A3-4542-8ED7-F90BEC9B23BC}">
+  <dimension ref="A1:CE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT1" s="6"/>
+      <c r="CE1" s="6"/>
+    </row>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>10</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>202</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>212</v>
-      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AT2" s="5"/>
+      <c r="AZ2" s="3"/>
+      <c r="BE2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,236 +3872,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="33.42578125" customWidth="1"/>
-    <col min="6" max="22" width="18.7109375" customWidth="1"/>
-    <col min="23" max="25" width="19.140625" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" customWidth="1"/>
-    <col min="27" max="42" width="27.5703125" customWidth="1"/>
-    <col min="43" max="48" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="P2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2559,204 +3981,191 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:Y2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="49" width="18.7109375" customWidth="1"/>
-    <col min="50" max="54" width="20.7109375" customWidth="1"/>
+    <col min="1" max="20" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="45" width="18.7109375" customWidth="1"/>
+    <col min="46" max="47" width="20.7109375" customWidth="1"/>
+    <col min="48" max="48" width="34.28515625" customWidth="1"/>
+    <col min="49" max="50" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2765,42 +4174,43 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
       <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AQ2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="U3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="AV3" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2811,203 +4221,186 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E525DE2-D9E2-4E37-8A6C-D335D324AE53}">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AV19" sqref="AV19"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="54" width="18.85546875" customWidth="1"/>
+    <col min="1" max="50" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3016,41 +4409,37 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
       <c r="T2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AS2" t="s">
         <v>61</v>
       </c>
+      <c r="AT2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AX2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AY2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3064,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701259A0-0CAD-4ABB-A3BC-1D7D072CD51E}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1:BF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,263 +4720,237 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973B350-4CF3-4C2A-804A-DEE3D04411D2}">
-  <dimension ref="A1:BU2"/>
+  <dimension ref="A1:BN3"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AV13" sqref="AV13"/>
+    <sheetView topLeftCell="R1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="19" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="20" max="46" width="32.85546875" customWidth="1"/>
-    <col min="47" max="47" width="32.85546875" style="4" customWidth="1"/>
-    <col min="48" max="61" width="32.85546875" customWidth="1"/>
-    <col min="62" max="68" width="17" customWidth="1"/>
-    <col min="69" max="74" width="29.7109375" customWidth="1"/>
+    <col min="1" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="15" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="39" width="32.85546875" customWidth="1"/>
+    <col min="40" max="40" width="32.85546875" style="4" customWidth="1"/>
+    <col min="41" max="54" width="32.85546875" customWidth="1"/>
+    <col min="55" max="61" width="17" customWidth="1"/>
+    <col min="62" max="67" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>120</v>
-      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3596,81 +4959,77 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" t="s">
+        <v>75</v>
+      </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="W2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="X2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AS2" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW2" t="s">
         <v>97</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AX2" t="s">
         <v>82</v>
       </c>
-      <c r="AU2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="AY2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" t="s">
         <v>73</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3681,259 +5040,242 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D6DB9E-D6BE-4CF9-8F3B-E46C1E6DFB58}">
-  <dimension ref="A1:BU2"/>
+  <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="46" width="33.7109375" customWidth="1"/>
-    <col min="47" max="47" width="33.7109375" style="4" customWidth="1"/>
-    <col min="48" max="80" width="33.7109375" customWidth="1"/>
+    <col min="1" max="42" width="33.7109375" customWidth="1"/>
+    <col min="43" max="43" width="33.7109375" style="4" customWidth="1"/>
+    <col min="44" max="76" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3942,74 +5284,70 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
       <c r="T2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W2" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="V2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="X2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU2" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AW2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>97</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="BA2" t="s">
         <v>82</v>
       </c>
-      <c r="AU2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR2" t="s">
+      <c r="BB2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" t="s">
         <v>80</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BO2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4021,373 +5359,352 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF768A6-934E-455D-B824-BBCE0329EDA5}">
-  <dimension ref="A1:CE2"/>
+  <dimension ref="A1:CA2"/>
   <sheetViews>
-    <sheetView topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BP12" sqref="BP12"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="51" width="27" customWidth="1"/>
-    <col min="52" max="53" width="30.7109375" customWidth="1"/>
-    <col min="54" max="56" width="27" customWidth="1"/>
-    <col min="57" max="58" width="27" style="4" customWidth="1"/>
-    <col min="59" max="85" width="27" customWidth="1"/>
+    <col min="1" max="47" width="27" customWidth="1"/>
+    <col min="48" max="49" width="30.7109375" customWidth="1"/>
+    <col min="50" max="52" width="27" customWidth="1"/>
+    <col min="53" max="54" width="27" style="4" customWidth="1"/>
+    <col min="55" max="81" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AU1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>49</v>
+        <v>128</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA1" s="6" t="s">
         <v>135</v>
       </c>
+      <c r="BB1" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="BC1" s="1" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF1" s="6" t="s">
-        <v>139</v>
+        <v>56</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CD1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>120</v>
-      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="V2" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AV2" s="5" t="s">
+      <c r="Z2" s="2"/>
+      <c r="AR2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE2" t="s">
         <v>124</v>
       </c>
-      <c r="AW2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BF2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BI2" t="s">
-        <v>127</v>
-      </c>
       <c r="BJ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK2" t="s">
         <v>82</v>
       </c>
-      <c r="BK2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="CB2" t="s">
+      <c r="BL2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX2" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="BY2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4399,261 +5716,250 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B69DAD-3AA9-4C61-817E-8CB68A4FC100}">
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="BT11" sqref="BT11"/>
+    <sheetView topLeftCell="U2" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="19" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="25" width="24.42578125" customWidth="1"/>
-    <col min="26" max="46" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="24.42578125" style="4" customWidth="1"/>
-    <col min="48" max="70" width="24.42578125" customWidth="1"/>
-    <col min="71" max="71" width="37.85546875" customWidth="1"/>
-    <col min="72" max="72" width="25.140625" customWidth="1"/>
+    <col min="1" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="15" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="20" width="24.42578125" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="42" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="24.42578125" style="4" customWidth="1"/>
+    <col min="44" max="65" width="24.42578125" customWidth="1"/>
+    <col min="66" max="66" width="37.85546875" customWidth="1"/>
+    <col min="67" max="67" width="25.140625" customWidth="1"/>
+    <col min="68" max="68" width="17" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -4662,62 +5968,50 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
       <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BL2" t="s">
         <v>75</v>
       </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR2" t="s">
+      <c r="BM2" t="s">
         <v>81</v>
       </c>
     </row>

--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D43FD-38A0-460A-9311-833A3236716C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3598EEC6-CEB5-478D-8498-53B571822DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="22" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -30,10 +30,19 @@
     <sheet name="CC_CORP_TC014" sheetId="16" r:id="rId15"/>
     <sheet name="CC_CORP_TC015" sheetId="17" r:id="rId16"/>
     <sheet name="CC_CORP_TC016" sheetId="20" r:id="rId17"/>
-    <sheet name="CC_CORP_TC017" sheetId="18" r:id="rId18"/>
-    <sheet name="CC_CORP_TC020" sheetId="19" r:id="rId19"/>
+    <sheet name="CC_CORP_TC019" sheetId="18" r:id="rId18"/>
+    <sheet name="CC_CORP_TC017" sheetId="21" r:id="rId19"/>
+    <sheet name="CC_CORP_TC018" sheetId="22" r:id="rId20"/>
+    <sheet name="CC_CORP_TC020" sheetId="19" r:id="rId21"/>
+    <sheet name="CC_CORP_TC021" sheetId="23" r:id="rId22"/>
+    <sheet name="CC_CORP_TC022" sheetId="25" r:id="rId23"/>
+    <sheet name="CC_CORP_TC023" sheetId="26" r:id="rId24"/>
+    <sheet name="CC_CORP_TC024" sheetId="27" r:id="rId25"/>
+    <sheet name="CC_CORP_TC025" sheetId="28" r:id="rId26"/>
+    <sheet name="CC_CORP_TC026" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="367">
   <si>
     <t>TestID</t>
   </si>
@@ -990,6 +999,168 @@
   </si>
   <si>
     <t>kim</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC018</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>1/07/2022</t>
+  </si>
+  <si>
+    <t>ExistPayeeName</t>
+  </si>
+  <si>
+    <t>ExistPayeeAmt</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Test CDD</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC019</t>
+  </si>
+  <si>
+    <t>Test CE</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC021</t>
+  </si>
+  <si>
+    <t>ACH Tester3</t>
+  </si>
+  <si>
+    <t>Aila</t>
+  </si>
+  <si>
+    <t>sendRemittanceToPayee</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC022</t>
+  </si>
+  <si>
+    <t>Update_Addenda</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC023</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC024</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>01/11/2022</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC025</t>
+  </si>
+  <si>
+    <t>PayeeID</t>
+  </si>
+  <si>
+    <t>PayeeType</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>BeneBankIDType</t>
+  </si>
+  <si>
+    <t>BeneBankCountry</t>
+  </si>
+  <si>
+    <t>BeneBankID</t>
+  </si>
+  <si>
+    <t>BeneBankName</t>
+  </si>
+  <si>
+    <t>BeneCountry</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Fed ABA</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>FEDERAL RESERVE BANK OF BOSTON</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>South Street</t>
+  </si>
+  <si>
+    <t>ArunTest</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC026</t>
+  </si>
+  <si>
+    <t>Payee</t>
+  </si>
+  <si>
+    <t>DebitAccount</t>
+  </si>
+  <si>
+    <t>PaymentCurrency</t>
+  </si>
+  <si>
+    <t>PurposeOfPayment</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>LoanTest</t>
+  </si>
+  <si>
+    <t>US Dollar (USD)</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1080,6 +1251,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2225,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079FEBA7-FD48-4110-BA2A-C0AE8E31B6C4}">
   <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView topLeftCell="BB1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="BD9" sqref="BD9"/>
+    <sheetView topLeftCell="Y12" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,6 +2406,7 @@
     <col min="1" max="68" width="29.85546875" customWidth="1"/>
     <col min="69" max="75" width="28.5703125" customWidth="1"/>
     <col min="76" max="80" width="18.42578125" customWidth="1"/>
+    <col min="81" max="81" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2534,7 +2707,7 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>74</v>
@@ -2546,7 +2719,7 @@
         <v>72</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="AX2" t="s">
         <v>74</v>
@@ -2561,7 +2734,7 @@
         <v>82</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="BR2" t="s">
         <v>10</v>
@@ -2594,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B045698-DC01-420E-83B7-1C72FB099398}">
   <dimension ref="A1:CE2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,10 +3697,200 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DFB32-C6CC-48F1-8D0E-016F9096C024}">
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="V2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510DA94-D336-4FBB-8C8F-C2DC3E57BE90}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,158 +4081,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E11718-94A3-4542-8ED7-F90BEC9B23BC}">
-  <dimension ref="A1:CE2"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:S2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT1" s="6"/>
-      <c r="CE1" s="6"/>
-    </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AT2" s="5"/>
-      <c r="AZ2" s="3"/>
-      <c r="BE2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
@@ -3976,6 +4187,1505 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7C58A-E6DE-40DB-AF93-2461EEDA21E6}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E11718-94A3-4542-8ED7-F90BEC9B23BC}">
+  <dimension ref="A1:CE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT1" s="6"/>
+      <c r="CE1" s="6"/>
+    </row>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AT2" s="5"/>
+      <c r="AZ2" s="3"/>
+      <c r="BE2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3FE77-7B3C-415F-91AA-024F59D8BADE}">
+  <dimension ref="A1:CG3"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="CG1" s="6"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AV2" s="5"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98618334-E381-482C-990A-A06E5CC08B1F}">
+  <dimension ref="A1:CG3"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="CG1" s="6"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AV2" s="5"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C701B54-3987-483B-B118-D9F1652F7055}">
+  <dimension ref="A1:CG3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="CG1" s="6"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AV2" s="5"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F38E0-0D8F-4112-8BAC-0EB5AE149CB6}">
+  <dimension ref="A1:CG3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="CG1" s="6"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AV2" s="5"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A9DBF0-FB95-4843-94BA-2CF99D6EDB4B}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA19BC-3B73-4A57-ACE8-BA121F922A15}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="P2" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D43FD-38A0-460A-9311-833A3236716C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54FAE64-E1D1-4AE5-A11E-BE571C0DDD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -30,8 +30,17 @@
     <sheet name="CC_CORP_TC014" sheetId="16" r:id="rId15"/>
     <sheet name="CC_CORP_TC015" sheetId="17" r:id="rId16"/>
     <sheet name="CC_CORP_TC016" sheetId="20" r:id="rId17"/>
-    <sheet name="CC_CORP_TC017" sheetId="18" r:id="rId18"/>
-    <sheet name="CC_CORP_TC020" sheetId="19" r:id="rId19"/>
+    <sheet name="CC_CORP_TC019" sheetId="18" r:id="rId18"/>
+    <sheet name="CC_CORP_TC017" sheetId="21" r:id="rId19"/>
+    <sheet name="CC_CORP_TC018" sheetId="22" r:id="rId20"/>
+    <sheet name="CC_CORP_TC020" sheetId="19" r:id="rId21"/>
+    <sheet name="CC_CORP_TC021" sheetId="23" r:id="rId22"/>
+    <sheet name="CC_CORP_TC022" sheetId="25" r:id="rId23"/>
+    <sheet name="CC_CORP_TC023" sheetId="26" r:id="rId24"/>
+    <sheet name="CC_CORP_TC024" sheetId="27" r:id="rId25"/>
+    <sheet name="CC_CORP_TC025" sheetId="28" r:id="rId26"/>
+    <sheet name="CC_CORP_TC026" sheetId="29" r:id="rId27"/>
+    <sheet name="CC_CORP_TC027" sheetId="30" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="379">
   <si>
     <t>TestID</t>
   </si>
@@ -959,9 +968,6 @@
     <t>01/06/2022</t>
   </si>
   <si>
-    <t>01/05/2022</t>
-  </si>
-  <si>
     <t>CC_CORP_TC017</t>
   </si>
   <si>
@@ -990,6 +996,207 @@
   </si>
   <si>
     <t>kim</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC018</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>1/07/2022</t>
+  </si>
+  <si>
+    <t>ExistPayeeName</t>
+  </si>
+  <si>
+    <t>ExistPayeeAmt</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Test CDD</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC019</t>
+  </si>
+  <si>
+    <t>Test CE</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC021</t>
+  </si>
+  <si>
+    <t>ACH Tester3</t>
+  </si>
+  <si>
+    <t>Aila</t>
+  </si>
+  <si>
+    <t>sendRemittanceToPayee</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC022</t>
+  </si>
+  <si>
+    <t>Update_Addenda</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC023</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC024</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>01/11/2022</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC025</t>
+  </si>
+  <si>
+    <t>PayeeID</t>
+  </si>
+  <si>
+    <t>PayeeType</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>BeneBankIDType</t>
+  </si>
+  <si>
+    <t>BeneBankCountry</t>
+  </si>
+  <si>
+    <t>BeneBankID</t>
+  </si>
+  <si>
+    <t>BeneBankName</t>
+  </si>
+  <si>
+    <t>BeneCountry</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Fed ABA</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>FEDERAL RESERVE BANK OF BOSTON</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>South Street</t>
+  </si>
+  <si>
+    <t>ArunTest</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC026</t>
+  </si>
+  <si>
+    <t>Payee</t>
+  </si>
+  <si>
+    <t>DebitAccount</t>
+  </si>
+  <si>
+    <t>PaymentCurrency</t>
+  </si>
+  <si>
+    <t>PurposeOfPayment</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>LoanTest</t>
+  </si>
+  <si>
+    <t>US Dollar (USD)</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC027</t>
+  </si>
+  <si>
+    <t>*1234 - DDA (USD)</t>
+  </si>
+  <si>
+    <t>BeneIdType</t>
+  </si>
+  <si>
+    <t>BeneId</t>
+  </si>
+  <si>
+    <t>BeneAddress1</t>
+  </si>
+  <si>
+    <t>BeneAddress2</t>
+  </si>
+  <si>
+    <t>BeneBankAddress1</t>
+  </si>
+  <si>
+    <t>BeneBankAddress2</t>
+  </si>
+  <si>
+    <t>ATest</t>
+  </si>
+  <si>
+    <t>Passport Number</t>
+  </si>
+  <si>
+    <t>Down south</t>
+  </si>
+  <si>
+    <t>Nr MCd</t>
+  </si>
+  <si>
+    <t>01/18/2022</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1080,6 +1287,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1945,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85603BC9-3C67-4E43-818E-912CA80B4A8C}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,6 +2166,7 @@
     <col min="43" max="43" width="28.7109375" style="4" customWidth="1"/>
     <col min="44" max="57" width="28.7109375" customWidth="1"/>
     <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2173,7 +2382,7 @@
         <v>120</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="AS2" s="7" t="s">
         <v>60</v>
@@ -2225,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079FEBA7-FD48-4110-BA2A-C0AE8E31B6C4}">
   <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView topLeftCell="BB1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="BD9" sqref="BD9"/>
+    <sheetView topLeftCell="Y12" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,6 +2443,7 @@
     <col min="1" max="68" width="29.85546875" customWidth="1"/>
     <col min="69" max="75" width="28.5703125" customWidth="1"/>
     <col min="76" max="80" width="18.42578125" customWidth="1"/>
+    <col min="81" max="81" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2519,10 +2729,10 @@
         <v>66</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="Z2" t="s">
         <v>98</v>
@@ -2534,7 +2744,7 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>74</v>
@@ -2546,7 +2756,7 @@
         <v>72</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="AX2" t="s">
         <v>74</v>
@@ -2561,7 +2771,7 @@
         <v>82</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="BR2" t="s">
         <v>10</v>
@@ -2594,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B045698-DC01-420E-83B7-1C72FB099398}">
   <dimension ref="A1:CE2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,10 +3734,200 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DFB32-C6CC-48F1-8D0E-016F9096C024}">
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="V2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510DA94-D336-4FBB-8C8F-C2DC3E57BE90}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,7 +4044,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
         <v>244</v>
@@ -3656,7 +4056,7 @@
         <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>222</v>
@@ -3669,16 +4069,16 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>246</v>
@@ -3693,10 +4093,10 @@
         <v>285</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="W2" t="s">
         <v>199</v>
@@ -3710,160 +4110,8 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E11718-94A3-4542-8ED7-F90BEC9B23BC}">
-  <dimension ref="A1:CE2"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:S2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT1" s="6"/>
-      <c r="CE1" s="6"/>
-    </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AT2" s="5"/>
-      <c r="AZ2" s="3"/>
-      <c r="BE2" s="3"/>
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3979,6 +4227,1628 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7C58A-E6DE-40DB-AF93-2461EEDA21E6}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E11718-94A3-4542-8ED7-F90BEC9B23BC}">
+  <dimension ref="A1:CE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT1" s="6"/>
+      <c r="CE1" s="6"/>
+    </row>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AT2" s="5"/>
+      <c r="AZ2" s="3"/>
+      <c r="BE2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3FE77-7B3C-415F-91AA-024F59D8BADE}">
+  <dimension ref="A1:CG3"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="CG1" s="6"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AV2" s="5"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98618334-E381-482C-990A-A06E5CC08B1F}">
+  <dimension ref="A1:CG3"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="CG1" s="6"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AV2" s="5"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" t="s">
+        <v>318</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C701B54-3987-483B-B118-D9F1652F7055}">
+  <dimension ref="A1:CG3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="CG1" s="6"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AV2" s="5"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" t="s">
+        <v>318</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F38E0-0D8F-4112-8BAC-0EB5AE149CB6}">
+  <dimension ref="A1:CG3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV1" s="6"/>
+      <c r="CG1" s="6"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="W2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AV2" s="5"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" t="s">
+        <v>318</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A9DBF0-FB95-4843-94BA-2CF99D6EDB4B}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA19BC-3B73-4A57-ACE8-BA121F922A15}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="P2" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017AD199-2816-4708-9EF4-4FDF4D62C1F9}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="N2" t="s">
+        <v>376</v>
+      </c>
+      <c r="O2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
   <dimension ref="A1:AY3"/>

--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3598EEC6-CEB5-478D-8498-53B571822DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54FAE64-E1D1-4AE5-A11E-BE571C0DDD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="22" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -40,9 +40,9 @@
     <sheet name="CC_CORP_TC024" sheetId="27" r:id="rId25"/>
     <sheet name="CC_CORP_TC025" sheetId="28" r:id="rId26"/>
     <sheet name="CC_CORP_TC026" sheetId="29" r:id="rId27"/>
+    <sheet name="CC_CORP_TC027" sheetId="30" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="379">
   <si>
     <t>TestID</t>
   </si>
@@ -968,9 +968,6 @@
     <t>01/06/2022</t>
   </si>
   <si>
-    <t>01/05/2022</t>
-  </si>
-  <si>
     <t>CC_CORP_TC017</t>
   </si>
   <si>
@@ -1161,6 +1158,45 @@
   </si>
   <si>
     <t>US Dollar (USD)</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC027</t>
+  </si>
+  <si>
+    <t>*1234 - DDA (USD)</t>
+  </si>
+  <si>
+    <t>BeneIdType</t>
+  </si>
+  <si>
+    <t>BeneId</t>
+  </si>
+  <si>
+    <t>BeneAddress1</t>
+  </si>
+  <si>
+    <t>BeneAddress2</t>
+  </si>
+  <si>
+    <t>BeneBankAddress1</t>
+  </si>
+  <si>
+    <t>BeneBankAddress2</t>
+  </si>
+  <si>
+    <t>ATest</t>
+  </si>
+  <si>
+    <t>Passport Number</t>
+  </si>
+  <si>
+    <t>Down south</t>
+  </si>
+  <si>
+    <t>Nr MCd</t>
+  </si>
+  <si>
+    <t>01/18/2022</t>
   </si>
 </sst>
 </file>
@@ -2117,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85603BC9-3C67-4E43-818E-912CA80B4A8C}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,6 +2166,7 @@
     <col min="43" max="43" width="28.7109375" style="4" customWidth="1"/>
     <col min="44" max="57" width="28.7109375" customWidth="1"/>
     <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2345,7 +2382,7 @@
         <v>120</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="AS2" s="7" t="s">
         <v>60</v>
@@ -2692,10 +2729,10 @@
         <v>66</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="Z2" t="s">
         <v>98</v>
@@ -2707,7 +2744,7 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>74</v>
@@ -3808,12 +3845,12 @@
         <v>193</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
         <v>244</v>
@@ -3825,7 +3862,7 @@
         <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>258</v>
@@ -3838,16 +3875,16 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>246</v>
@@ -3862,7 +3899,7 @@
         <v>285</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V2" t="s">
         <v>199</v>
@@ -3877,7 +3914,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4007,7 +4044,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
         <v>244</v>
@@ -4019,7 +4056,7 @@
         <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>222</v>
@@ -4032,16 +4069,16 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>246</v>
@@ -4056,10 +4093,10 @@
         <v>285</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="W2" t="s">
         <v>199</v>
@@ -4073,7 +4110,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4308,15 +4345,15 @@
         <v>193</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
         <v>244</v>
@@ -4328,7 +4365,7 @@
         <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>222</v>
@@ -4342,13 +4379,13 @@
       <c r="K2" s="2"/>
       <c r="L2" s="12"/>
       <c r="M2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>246</v>
@@ -4363,10 +4400,10 @@
         <v>285</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W2" t="s">
         <v>199</v>
@@ -4378,10 +4415,10 @@
         <v>262</v>
       </c>
       <c r="AA2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4651,7 +4688,7 @@
         <v>284</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>276</v>
@@ -4661,7 +4698,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D2" t="s">
         <v>244</v>
@@ -4670,22 +4707,22 @@
         <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H2" t="s">
         <v>219</v>
       </c>
       <c r="I2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
@@ -4695,13 +4732,13 @@
         <v>265</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>246</v>
@@ -4716,7 +4753,7 @@
         <v>262</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W2" t="s">
         <v>199</v>
@@ -4860,7 +4897,7 @@
         <v>284</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>276</v>
@@ -4884,7 +4921,7 @@
         <v>240</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>286</v>
@@ -4894,7 +4931,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>248</v>
@@ -4914,7 +4951,7 @@
         <v>262</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W2" t="s">
         <v>199</v>
@@ -4926,31 +4963,31 @@
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G3" t="s">
         <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>246</v>
@@ -5091,7 +5128,7 @@
         <v>284</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>276</v>
@@ -5115,7 +5152,7 @@
         <v>240</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>286</v>
@@ -5125,7 +5162,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>220</v>
@@ -5145,7 +5182,7 @@
         <v>262</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W2" t="s">
         <v>199</v>
@@ -5157,31 +5194,31 @@
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
         <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>246</v>
@@ -5323,7 +5360,7 @@
         <v>284</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>276</v>
@@ -5347,7 +5384,7 @@
         <v>240</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>286</v>
@@ -5357,7 +5394,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>220</v>
@@ -5370,14 +5407,14 @@
         <v>265</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O2" s="2"/>
       <c r="U2" s="2" t="s">
         <v>262</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W2" t="s">
         <v>199</v>
@@ -5389,31 +5426,31 @@
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
         <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>246</v>
@@ -5468,72 +5505,72 @@
         <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>350</v>
       </c>
-      <c r="E2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>351</v>
-      </c>
-      <c r="I2" t="s">
-        <v>352</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>250</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5551,8 +5588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA19BC-3B73-4A57-ACE8-BA121F922A15}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5582,46 +5619,46 @@
         <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>214</v>
@@ -5629,58 +5666,181 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="s">
         <v>354</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M2" t="s">
         <v>355</v>
-      </c>
-      <c r="M2" t="s">
-        <v>356</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I3" t="s">
         <v>351</v>
-      </c>
-      <c r="I3" t="s">
-        <v>352</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>250</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017AD199-2816-4708-9EF4-4FDF4D62C1F9}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="L3" t="s">
-        <v>352</v>
+      <c r="G2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="N2" t="s">
+        <v>376</v>
+      </c>
+      <c r="O2" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54FAE64-E1D1-4AE5-A11E-BE571C0DDD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136509BF-CC75-412B-A1F9-ACB1C85EDFDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="26" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,10 @@
     <sheet name="CC_CORP_TC024" sheetId="27" r:id="rId25"/>
     <sheet name="CC_CORP_TC025" sheetId="28" r:id="rId26"/>
     <sheet name="CC_CORP_TC026" sheetId="29" r:id="rId27"/>
-    <sheet name="CC_CORP_TC027" sheetId="30" r:id="rId28"/>
+    <sheet name="CC_CORP_TC027" sheetId="32" r:id="rId28"/>
+    <sheet name="CC_CORP_TC028" sheetId="30" r:id="rId29"/>
+    <sheet name="CC_CORP_TC039" sheetId="31" r:id="rId30"/>
+    <sheet name="CC_CORP_TC032" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="409">
   <si>
     <t>TestID</t>
   </si>
@@ -422,12 +425,6 @@
     <t>CC_CORP_TC006</t>
   </si>
   <si>
-    <t>*3611 - DDA (USD)</t>
-  </si>
-  <si>
-    <t>*3611 - DDA</t>
-  </si>
-  <si>
     <t>CC_CORP_TC007</t>
   </si>
   <si>
@@ -671,9 +668,6 @@
     <t>RejectReason</t>
   </si>
   <si>
-    <t>Cancel payment</t>
-  </si>
-  <si>
     <t>CC_CORP_TC012</t>
   </si>
   <si>
@@ -926,30 +920,18 @@
     <t>SendRemittanceToPayee</t>
   </si>
   <si>
-    <t>12/27/2022</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>12/27/2021</t>
-  </si>
-  <si>
-    <t>12/29/2021</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>35.00</t>
   </si>
   <si>
-    <t>Series126</t>
-  </si>
-  <si>
     <t>MemoEditReview</t>
   </si>
   <si>
@@ -959,9 +941,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>01/04/2022</t>
-  </si>
-  <si>
     <t>Series111</t>
   </si>
   <si>
@@ -1073,9 +1052,6 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>01/11/2022</t>
-  </si>
-  <si>
     <t>CC_CORP_TC025</t>
   </si>
   <si>
@@ -1196,7 +1172,124 @@
     <t>Nr MCd</t>
   </si>
   <si>
-    <t>01/18/2022</t>
+    <t>CC_CORP_TC039</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*6834 - SDA - $654.11 (USD)</t>
+  </si>
+  <si>
+    <t>*1805 - DDA (12) - $5,000.00 (USD)</t>
+  </si>
+  <si>
+    <t>*1805 - DDA</t>
+  </si>
+  <si>
+    <t>*6834 - SDA</t>
+  </si>
+  <si>
+    <t>01/24/2022</t>
+  </si>
+  <si>
+    <t>test payment</t>
+  </si>
+  <si>
+    <t>1/25/2022</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Extended Addenda (CTX)</t>
+  </si>
+  <si>
+    <t>*1901 - Loans - $238,869.09 (USD)</t>
+  </si>
+  <si>
+    <t>1/24/2021</t>
+  </si>
+  <si>
+    <t>*1901 - Loans</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>*6834 - SDA - $609.11 (USD)</t>
+  </si>
+  <si>
+    <t>1/27/2022</t>
+  </si>
+  <si>
+    <t>*1805 - DDA (12) - $5,027.00 (USD)</t>
+  </si>
+  <si>
+    <t>*6834 - SDA - $584.11 (USD)</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>*8752 - Loans - $180,100.13 (USD)</t>
+  </si>
+  <si>
+    <t>*8752 - Loans</t>
+  </si>
+  <si>
+    <t>Series007</t>
+  </si>
+  <si>
+    <t>01/26/2022</t>
+  </si>
+  <si>
+    <t>*8539 - DDA (BUS CKG         8539) - $3,322.80 (USD)</t>
+  </si>
+  <si>
+    <t>*9257 - DDA (BUS CKG         9257) - $13,656.58 (USD)</t>
+  </si>
+  <si>
+    <t>*5860 - DDA (DCIS Escrow New) - $10,724.66 (USD)</t>
+  </si>
+  <si>
+    <t>*5844 - DDA (DCIS Operating NEW) - $194,048.80 (USD)</t>
+  </si>
+  <si>
+    <t>01/27/2022</t>
+  </si>
+  <si>
+    <t>*5860 - DDA</t>
+  </si>
+  <si>
+    <t>*5844 - DDA</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC028</t>
+  </si>
+  <si>
+    <t>FreeFormTempalte</t>
+  </si>
+  <si>
+    <t>RepetitiveButton</t>
+  </si>
+  <si>
+    <t>BeneID</t>
+  </si>
+  <si>
+    <t>beneAddress1</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC032</t>
+  </si>
+  <si>
+    <t>Wire Transfers</t>
+  </si>
+  <si>
+    <t>Atester</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,6 +1381,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,7 +1727,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>39</v>
@@ -1756,31 +1853,31 @@
         <v>50</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="AV1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>55</v>
@@ -1867,156 +1964,156 @@
         <v>90</v>
       </c>
       <c r="CE1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="CL1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DD1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CX1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DY1" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DY1" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2041,35 +2138,35 @@
         <v>66</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AA2" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>73</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AS2" t="s">
         <v>95</v>
       </c>
       <c r="AT2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW2" t="s">
         <v>154</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>156</v>
       </c>
       <c r="BA2" s="4"/>
       <c r="BB2" s="11" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="BC2" t="s">
         <v>74</v>
@@ -2093,13 +2190,13 @@
         <v>83</v>
       </c>
       <c r="BJ2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BK2" t="s">
         <v>73</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="CB2" t="s">
         <v>10</v>
@@ -2108,13 +2205,13 @@
         <v>86</v>
       </c>
       <c r="CD2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="CE2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="CF2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="DA2" t="s">
         <v>75</v>
@@ -2126,7 +2223,7 @@
         <v>98</v>
       </c>
       <c r="DI2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.25">
@@ -2153,15 +2250,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85603BC9-3C67-4E43-818E-912CA80B4A8C}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="15" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="21" width="28.7109375" customWidth="1"/>
+    <col min="16" max="16" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="28.7109375" customWidth="1"/>
     <col min="22" max="42" width="28.7109375" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="28.7109375" style="4" customWidth="1"/>
     <col min="44" max="57" width="28.7109375" customWidth="1"/>
@@ -2326,13 +2426,13 @@
         <v>78</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>88</v>
@@ -2344,27 +2444,27 @@
         <v>90</v>
       </c>
       <c r="BF1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="BI1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>396</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2379,19 +2479,19 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AX2" t="s">
         <v>77</v>
@@ -2400,13 +2500,13 @@
         <v>80</v>
       </c>
       <c r="AZ2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BA2" t="s">
         <v>95</v>
       </c>
       <c r="BB2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BC2" t="s">
         <v>10</v>
@@ -2418,10 +2518,10 @@
         <v>87</v>
       </c>
       <c r="BF2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2434,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079FEBA7-FD48-4110-BA2A-C0AE8E31B6C4}">
   <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView topLeftCell="Y12" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,13 +2746,13 @@
         <v>78</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>88</v>
@@ -2664,42 +2764,42 @@
         <v>90</v>
       </c>
       <c r="BU1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="BX1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="CB1" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2729,10 +2829,10 @@
         <v>66</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Z2" t="s">
         <v>98</v>
@@ -2744,7 +2844,7 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>74</v>
@@ -2756,7 +2856,7 @@
         <v>72</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AX2" t="s">
         <v>74</v>
@@ -2771,7 +2871,7 @@
         <v>82</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="BR2" t="s">
         <v>10</v>
@@ -2783,16 +2883,16 @@
         <v>87</v>
       </c>
       <c r="BU2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BX2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BY2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="CC2" t="s">
-        <v>203</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2834,111 +2934,111 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="AT1" s="6"/>
       <c r="CE1" s="6"/>
     </row>
     <row r="2" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S2" t="s">
         <v>95</v>
@@ -3000,132 +3100,132 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AV1" s="6"/>
       <c r="CG1" s="6"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L2" s="2">
         <v>123</v>
@@ -3134,29 +3234,29 @@
         <v>14433</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="W2" t="s">
         <v>248</v>
-      </c>
-      <c r="W2" t="s">
-        <v>251</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Z2">
         <v>45</v>
@@ -3168,16 +3268,16 @@
         <v>7653</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG2" t="s">
         <v>95</v>
@@ -3232,58 +3332,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -3292,72 +3392,72 @@
         <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="AU1" s="6"/>
       <c r="CF1" s="6"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" t="s">
         <v>254</v>
       </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" t="s">
-        <v>257</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="V2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X2" t="s">
         <v>95</v>
@@ -3412,58 +3512,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -3472,72 +3572,72 @@
         <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="AU1" s="6"/>
       <c r="CF1" s="6"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="V2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X2" t="s">
         <v>95</v>
@@ -3592,58 +3692,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -3652,72 +3752,72 @@
         <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="AU1" s="6"/>
       <c r="CF1" s="6"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="V2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X2" t="s">
         <v>95</v>
@@ -3773,99 +3873,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
@@ -3875,46 +3975,46 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="12" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="V2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Y2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3926,8 +4026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510DA94-D336-4FBB-8C8F-C2DC3E57BE90}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,61 +4064,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>49</v>
@@ -4027,39 +4127,39 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
@@ -4069,48 +4169,48 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4120,16 +4220,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.85546875" customWidth="1"/>
@@ -4196,20 +4299,20 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" s="13" t="s">
+        <v>371</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>372</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>59</v>
@@ -4218,6 +4321,32 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4270,61 +4399,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>49</v>
@@ -4333,42 +4462,42 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
@@ -4379,46 +4508,46 @@
       <c r="K2" s="2"/>
       <c r="L2" s="12"/>
       <c r="M2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="V2" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AA2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4459,80 +4588,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="AT1" s="6"/>
       <c r="CE1" s="6"/>
     </row>
     <row r="2" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -4542,28 +4671,28 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S2" t="s">
         <v>95</v>
@@ -4619,147 +4748,147 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AV1" s="6"/>
       <c r="CG1" s="6"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z2" t="s">
         <v>95</v>
@@ -4771,7 +4900,7 @@
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4828,133 +4957,133 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AV1" s="6"/>
       <c r="CG1" s="6"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AV2" s="5"/>
@@ -4963,43 +5092,43 @@
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>95</v>
@@ -5059,133 +5188,133 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AV1" s="6"/>
       <c r="CG1" s="6"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AV2" s="5"/>
@@ -5194,43 +5323,43 @@
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>95</v>
@@ -5247,7 +5376,7 @@
   <dimension ref="A1:CG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,133 +5420,133 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AV1" s="6"/>
       <c r="CG1" s="6"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="O2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AV2" s="5"/>
@@ -5426,43 +5555,43 @@
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>95</v>
@@ -5502,75 +5631,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="I2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5616,111 +5745,111 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5730,11 +5859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017AD199-2816-4708-9EF4-4FDF4D62C1F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3999615E-3286-4129-A0B4-17852BEC8FF5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,94 +5883,202 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" t="s">
         <v>366</v>
-      </c>
-      <c r="B2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D2" t="s">
-        <v>375</v>
       </c>
       <c r="E2" s="2">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N2" t="s">
+        <v>367</v>
+      </c>
+      <c r="O2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017AD199-2816-4708-9EF4-4FDF4D62C1F9}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="J2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="N2" t="s">
-        <v>376</v>
-      </c>
-      <c r="O2" t="s">
-        <v>377</v>
-      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5853,13 +6090,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="18.7109375" customWidth="1"/>
     <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="45" width="18.7109375" customWidth="1"/>
     <col min="46" max="47" width="20.7109375" customWidth="1"/>
@@ -6027,10 +6268,10 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6045,7 +6286,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>71</v>
+        <v>381</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -6053,14 +6294,11 @@
       <c r="T2" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="AS2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>74</v>
+        <v>374</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -6078,6 +6316,9 @@
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="U3" s="8" t="s">
         <v>73</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="AV3" s="8" t="s">
         <v>73</v>
@@ -6089,17 +6330,369 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E525DE2-D9E2-4E37-8A6C-D335D324AE53}">
-  <dimension ref="A1:AY2"/>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E4BEF-EC3B-4052-8C30-80FB1A627D19}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="50" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="W2" t="s">
+        <v>197</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB433F1-5A33-4F6D-B11F-1C3343D5586F}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N2" t="s">
+        <v>367</v>
+      </c>
+      <c r="O2" t="s">
+        <v>368</v>
+      </c>
+      <c r="P2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E525DE2-D9E2-4E37-8A6C-D335D324AE53}">
+  <dimension ref="A1:AY3"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="26" width="18.85546875" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="18.85546875" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="18.85546875" customWidth="1"/>
+    <col min="39" max="39" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="18.85546875" customWidth="1"/>
+    <col min="48" max="48" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6261,11 +6854,11 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" s="14" t="s">
+        <v>385</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6279,8 +6872,8 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" t="s">
-        <v>66</v>
+      <c r="P2" s="14" t="s">
+        <v>381</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -6292,10 +6885,10 @@
         <v>82</v>
       </c>
       <c r="AS2" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="AT2" t="s">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="AU2" t="s">
         <v>81</v>
@@ -6311,6 +6904,11 @@
       </c>
       <c r="AY2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -6592,8 +7190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973B350-4CF3-4C2A-804A-DEE3D04411D2}">
   <dimension ref="A1:BN3"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="AJ1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6604,7 +7202,7 @@
     <col min="40" max="40" width="32.85546875" style="4" customWidth="1"/>
     <col min="41" max="54" width="32.85546875" customWidth="1"/>
     <col min="55" max="61" width="17" customWidth="1"/>
-    <col min="62" max="67" width="29.7109375" customWidth="1"/>
+    <col min="62" max="66" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6812,10 +7410,10 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>387</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6830,7 +7428,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s">
@@ -6840,10 +7438,10 @@
         <v>95</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>381</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="W2" t="s">
         <v>98</v>
@@ -6855,13 +7453,13 @@
         <v>82</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="AP2" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="AQ2" t="s">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
@@ -6873,10 +7471,10 @@
         <v>59</v>
       </c>
       <c r="AU2" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="AV2" t="s">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="AW2" t="s">
         <v>97</v>
@@ -6885,7 +7483,7 @@
         <v>82</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="BK2" t="s">
         <v>79</v>
@@ -6912,15 +7510,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D6DB9E-D6BE-4CF9-8F3B-E46C1E6DFB58}">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="42" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="42" width="33.7109375" customWidth="1"/>
     <col min="43" max="43" width="33.7109375" style="4" customWidth="1"/>
-    <col min="44" max="76" width="33.7109375" customWidth="1"/>
+    <col min="44" max="69" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7136,14 +7738,13 @@
       <c r="A2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+      <c r="B2" t="s">
+        <v>394</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -7154,8 +7755,8 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>120</v>
+      <c r="P2" t="s">
+        <v>395</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -7163,17 +7764,20 @@
       <c r="T2" t="s">
         <v>72</v>
       </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
       <c r="V2" t="s">
         <v>95</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" t="s">
-        <v>115</v>
+        <v>390</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Z2" t="s">
         <v>98</v>
@@ -7185,13 +7789,13 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>121</v>
+        <v>383</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -7200,10 +7804,10 @@
         <v>59</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>83</v>
+        <v>391</v>
       </c>
       <c r="AZ2" t="s">
         <v>97</v>
@@ -7231,17 +7835,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF768A6-934E-455D-B824-BBCE0329EDA5}">
   <dimension ref="A1:CA2"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="47" width="27" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="27" customWidth="1"/>
+    <col min="17" max="17" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="47" width="27" customWidth="1"/>
     <col min="48" max="49" width="30.7109375" customWidth="1"/>
     <col min="50" max="52" width="27" customWidth="1"/>
     <col min="53" max="54" width="27" style="4" customWidth="1"/>
-    <col min="55" max="81" width="27" customWidth="1"/>
+    <col min="55" max="79" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7255,7 +7863,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>39</v>
@@ -7381,31 +7989,31 @@
         <v>50</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="AV1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>55</v>
@@ -7485,25 +8093,25 @@
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>71</v>
+      <c r="F2" t="s">
+        <v>388</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>81</v>
@@ -7517,38 +8125,38 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>66</v>
+        <v>390</v>
       </c>
       <c r="V2" t="s">
         <v>82</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AR2" s="5" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="AS2" t="s">
         <v>95</v>
       </c>
       <c r="AT2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AU2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AV2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>83</v>
+        <v>392</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>373</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>374</v>
       </c>
       <c r="BE2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BF2" t="s">
         <v>82</v>
@@ -7556,11 +8164,11 @@
       <c r="BG2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" s="2" t="s">
-        <v>74</v>
+      <c r="BH2" t="s">
+        <v>373</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>83</v>
+        <v>391</v>
       </c>
       <c r="BJ2" t="s">
         <v>81</v>
@@ -7588,15 +8196,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B69DAD-3AA9-4C61-817E-8CB68A4FC100}">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="U2" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="15" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="20" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="24.42578125" customWidth="1"/>
     <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="42" width="24.42578125" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="24.42578125" style="4" customWidth="1"/>
@@ -7759,72 +8371,72 @@
         <v>62</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="BP1" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>387</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -7838,8 +8450,8 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>71</v>
+      <c r="P2" t="s">
+        <v>388</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -7848,13 +8460,13 @@
         <v>72</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>299</v>
+        <v>393</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -7870,13 +8482,13 @@
         <v>79</v>
       </c>
       <c r="BA2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="BL2" t="s">
         <v>75</v>

--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54FAE64-E1D1-4AE5-A11E-BE571C0DDD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F77C2B-98AA-4545-A0E1-93BEEC06C294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -30,9 +30,9 @@
     <sheet name="CC_CORP_TC014" sheetId="16" r:id="rId15"/>
     <sheet name="CC_CORP_TC015" sheetId="17" r:id="rId16"/>
     <sheet name="CC_CORP_TC016" sheetId="20" r:id="rId17"/>
-    <sheet name="CC_CORP_TC019" sheetId="18" r:id="rId18"/>
-    <sheet name="CC_CORP_TC017" sheetId="21" r:id="rId19"/>
-    <sheet name="CC_CORP_TC018" sheetId="22" r:id="rId20"/>
+    <sheet name="CC_CORP_TC017" sheetId="21" r:id="rId18"/>
+    <sheet name="CC_CORP_TC018" sheetId="22" r:id="rId19"/>
+    <sheet name="CC_CORP_TC019" sheetId="18" r:id="rId20"/>
     <sheet name="CC_CORP_TC020" sheetId="19" r:id="rId21"/>
     <sheet name="CC_CORP_TC021" sheetId="23" r:id="rId22"/>
     <sheet name="CC_CORP_TC022" sheetId="25" r:id="rId23"/>
@@ -40,7 +40,17 @@
     <sheet name="CC_CORP_TC024" sheetId="27" r:id="rId25"/>
     <sheet name="CC_CORP_TC025" sheetId="28" r:id="rId26"/>
     <sheet name="CC_CORP_TC026" sheetId="29" r:id="rId27"/>
-    <sheet name="CC_CORP_TC027" sheetId="30" r:id="rId28"/>
+    <sheet name="CC_CORP_TC027" sheetId="32" r:id="rId28"/>
+    <sheet name="CC_CORP_TC028" sheetId="30" r:id="rId29"/>
+    <sheet name="CC_CORP_TC029" sheetId="37" r:id="rId30"/>
+    <sheet name="CC_CORP_TC030" sheetId="38" r:id="rId31"/>
+    <sheet name="CC_CORP_TC031" sheetId="39" r:id="rId32"/>
+    <sheet name="CC_CORP_TC032" sheetId="33" r:id="rId33"/>
+    <sheet name="CC_CORP_TC033" sheetId="40" r:id="rId34"/>
+    <sheet name="CC_CORP_TC034" sheetId="41" r:id="rId35"/>
+    <sheet name="CC_CORP_TC037" sheetId="34" r:id="rId36"/>
+    <sheet name="CC_CORP_TC038" sheetId="35" r:id="rId37"/>
+    <sheet name="CC_CORP_TC039" sheetId="31" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,8 +69,176 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thangapalam, Shilpa</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{813C12A1-18C5-45E4-A672-5E8D76455F1D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same name as Payee name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C412B8DA-A431-4978-8B8A-ECC2EED211F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same name as Create Payee Name</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9EC073CD-B34B-4899-A24F-9C6015892423}</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{9EC073CD-B34B-4899-A24F-9C6015892423}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    editing Amount value</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thangapalam, Shilpa</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{10C3927B-DF76-4B70-A30C-0CC4B0C57D42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Editing new amount needs to be entered</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{FB239D31-B385-4BCC-BA6F-2128EA65E250}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Editing new amount needs to be entered</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thangapalam, Shilpa</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{FA421FAD-845A-4EC5-BEA5-4EBC26573612}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Editing Amount field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="465">
   <si>
     <t>TestID</t>
   </si>
@@ -422,12 +600,6 @@
     <t>CC_CORP_TC006</t>
   </si>
   <si>
-    <t>*3611 - DDA (USD)</t>
-  </si>
-  <si>
-    <t>*3611 - DDA</t>
-  </si>
-  <si>
     <t>CC_CORP_TC007</t>
   </si>
   <si>
@@ -671,9 +843,6 @@
     <t>RejectReason</t>
   </si>
   <si>
-    <t>Cancel payment</t>
-  </si>
-  <si>
     <t>CC_CORP_TC012</t>
   </si>
   <si>
@@ -803,9 +972,6 @@
     <t>011000206</t>
   </si>
   <si>
-    <t>testing1</t>
-  </si>
-  <si>
     <t>Testing2</t>
   </si>
   <si>
@@ -815,15 +981,9 @@
     <t>011000015</t>
   </si>
   <si>
-    <t xml:space="preserve">Test (123) </t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
-    <t>'BANK OF AMERICA N.A</t>
-  </si>
-  <si>
     <t>CC_CORP_TC014</t>
   </si>
   <si>
@@ -857,39 +1017,21 @@
     <t>PayeeName</t>
   </si>
   <si>
-    <t>Demo (324)</t>
-  </si>
-  <si>
-    <t>$45.00</t>
-  </si>
-  <si>
-    <t>12/21/2021</t>
-  </si>
-  <si>
     <t>CC_CORP_TC015</t>
   </si>
   <si>
-    <t>12/22/2021</t>
-  </si>
-  <si>
     <t>CC_CORP_TC016</t>
   </si>
   <si>
     <t>011000206||011000028</t>
   </si>
   <si>
-    <t>JD1||Mathe</t>
-  </si>
-  <si>
     <t>BANK OF AMERICA N.A||STATE STREET BOSTON</t>
   </si>
   <si>
     <t>Internet Authorization||Physical Authorization</t>
   </si>
   <si>
-    <t>152||27</t>
-  </si>
-  <si>
     <t>Confidential</t>
   </si>
   <si>
@@ -899,9 +1041,6 @@
     <t>CC_CORP_TC020</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>132</t>
   </si>
   <si>
@@ -911,9 +1050,6 @@
     <t>ACH Demo</t>
   </si>
   <si>
-    <t>Jerry</t>
-  </si>
-  <si>
     <t>Addenda</t>
   </si>
   <si>
@@ -926,30 +1062,18 @@
     <t>SendRemittanceToPayee</t>
   </si>
   <si>
-    <t>12/27/2022</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>12/27/2021</t>
-  </si>
-  <si>
-    <t>12/29/2021</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>35.00</t>
   </si>
   <si>
-    <t>Series126</t>
-  </si>
-  <si>
     <t>MemoEditReview</t>
   </si>
   <si>
@@ -959,9 +1083,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>01/04/2022</t>
-  </si>
-  <si>
     <t>Series111</t>
   </si>
   <si>
@@ -977,9 +1098,6 @@
     <t>tester (122)</t>
   </si>
   <si>
-    <t>1/06/2022</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -1004,9 +1122,6 @@
     <t>134</t>
   </si>
   <si>
-    <t>1/07/2022</t>
-  </si>
-  <si>
     <t>ExistPayeeName</t>
   </si>
   <si>
@@ -1052,9 +1167,6 @@
     <t>Aila</t>
   </si>
   <si>
-    <t>sendRemittanceToPayee</t>
-  </si>
-  <si>
     <t>CC_CORP_TC022</t>
   </si>
   <si>
@@ -1070,12 +1182,6 @@
     <t>CC_CORP_TC024</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>01/11/2022</t>
-  </si>
-  <si>
     <t>CC_CORP_TC025</t>
   </si>
   <si>
@@ -1163,9 +1269,6 @@
     <t>CC_CORP_TC027</t>
   </si>
   <si>
-    <t>*1234 - DDA (USD)</t>
-  </si>
-  <si>
     <t>BeneIdType</t>
   </si>
   <si>
@@ -1196,7 +1299,340 @@
     <t>Nr MCd</t>
   </si>
   <si>
-    <t>01/18/2022</t>
+    <t>CC_CORP_TC039</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*6834 - SDA - $654.11 (USD)</t>
+  </si>
+  <si>
+    <t>*1805 - DDA (12) - $5,000.00 (USD)</t>
+  </si>
+  <si>
+    <t>*1805 - DDA</t>
+  </si>
+  <si>
+    <t>*6834 - SDA</t>
+  </si>
+  <si>
+    <t>01/24/2022</t>
+  </si>
+  <si>
+    <t>test payment</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Extended Addenda (CTX)</t>
+  </si>
+  <si>
+    <t>*1901 - Loans - $238,869.09 (USD)</t>
+  </si>
+  <si>
+    <t>1/24/2021</t>
+  </si>
+  <si>
+    <t>*1901 - Loans</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>*6834 - SDA - $609.11 (USD)</t>
+  </si>
+  <si>
+    <t>1/27/2022</t>
+  </si>
+  <si>
+    <t>*1805 - DDA (12) - $5,027.00 (USD)</t>
+  </si>
+  <si>
+    <t>*6834 - SDA - $584.11 (USD)</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>*8752 - Loans - $180,100.13 (USD)</t>
+  </si>
+  <si>
+    <t>*8752 - Loans</t>
+  </si>
+  <si>
+    <t>Series007</t>
+  </si>
+  <si>
+    <t>01/26/2022</t>
+  </si>
+  <si>
+    <t>*8539 - DDA (BUS CKG         8539) - $3,322.80 (USD)</t>
+  </si>
+  <si>
+    <t>*9257 - DDA (BUS CKG         9257) - $13,656.58 (USD)</t>
+  </si>
+  <si>
+    <t>*5860 - DDA (DCIS Escrow New) - $10,724.66 (USD)</t>
+  </si>
+  <si>
+    <t>*5844 - DDA (DCIS Operating NEW) - $194,048.80 (USD)</t>
+  </si>
+  <si>
+    <t>01/27/2022</t>
+  </si>
+  <si>
+    <t>*5860 - DDA</t>
+  </si>
+  <si>
+    <t>*5844 - DDA</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC028</t>
+  </si>
+  <si>
+    <t>RepetitiveButton</t>
+  </si>
+  <si>
+    <t>BeneID</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC032</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>01/31/2022</t>
+  </si>
+  <si>
+    <t>NewTemp</t>
+  </si>
+  <si>
+    <t>FreeFormTemplate</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ACH Testing</t>
+  </si>
+  <si>
+    <t>*6834 - SDA (USD)</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>7653</t>
+  </si>
+  <si>
+    <t>*1805 - DDA (12) (USD)</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC037</t>
+  </si>
+  <si>
+    <t>02/01/2022</t>
+  </si>
+  <si>
+    <t>EditAddenda</t>
+  </si>
+  <si>
+    <t>testing||tester</t>
+  </si>
+  <si>
+    <t>06||11</t>
+  </si>
+  <si>
+    <t>John||Mathew</t>
+  </si>
+  <si>
+    <t>No||No</t>
+  </si>
+  <si>
+    <t>Test EntryData</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>$12.00</t>
+  </si>
+  <si>
+    <t>John1</t>
+  </si>
+  <si>
+    <t>PaymentAmount</t>
+  </si>
+  <si>
+    <t>$5.00</t>
+  </si>
+  <si>
+    <t>$8.00</t>
+  </si>
+  <si>
+    <t>AmountReview</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>$9.00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>$11.00</t>
+  </si>
+  <si>
+    <t>$10.00</t>
+  </si>
+  <si>
+    <t>Test CompanyData</t>
+  </si>
+  <si>
+    <t>Test Entry</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>$7.00</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>EditTransactionStatus</t>
+  </si>
+  <si>
+    <t>Pending Repair</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC038</t>
+  </si>
+  <si>
+    <t>CreateMixedDebitOrCredit</t>
+  </si>
+  <si>
+    <t>Update_CreateMixedDebitOrCredit</t>
+  </si>
+  <si>
+    <t>Pending Delivery</t>
+  </si>
+  <si>
+    <t>ExistWireTemplateName</t>
+  </si>
+  <si>
+    <t>New Wire</t>
+  </si>
+  <si>
+    <t>Update_Payee</t>
+  </si>
+  <si>
+    <t>Update_BeneIdType</t>
+  </si>
+  <si>
+    <t>Update_BeneID</t>
+  </si>
+  <si>
+    <t>Update_BeneAddress1</t>
+  </si>
+  <si>
+    <t>Update_BeneAddress2</t>
+  </si>
+  <si>
+    <t>Update_BeneCountry</t>
+  </si>
+  <si>
+    <t>Update_BeneBankIDType</t>
+  </si>
+  <si>
+    <t>Update_PaymentCurrency</t>
+  </si>
+  <si>
+    <t>Update_BeneBankID</t>
+  </si>
+  <si>
+    <t>Update_PurposeOfPayment</t>
+  </si>
+  <si>
+    <t>Update_BeneBankAddress1</t>
+  </si>
+  <si>
+    <t>Update_BeneBankAddress2</t>
+  </si>
+  <si>
+    <t>Terrance</t>
+  </si>
+  <si>
+    <t>ExistingWireTemplate</t>
+  </si>
+  <si>
+    <t>WireTemplate</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC029</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC030</t>
+  </si>
+  <si>
+    <t>WireNewTemplate</t>
+  </si>
+  <si>
+    <t>NewTester</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>NewTransfer</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC031</t>
+  </si>
+  <si>
+    <t>Update_DebitAccount</t>
+  </si>
+  <si>
+    <t>Update_BeneId</t>
+  </si>
+  <si>
+    <t>Near Metro</t>
+  </si>
+  <si>
+    <t>NewEdit</t>
+  </si>
+  <si>
+    <t>$14.00</t>
+  </si>
+  <si>
+    <t>EditTransferTest</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC033</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC034</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,8 +1658,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1239,6 +1694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,7 +1731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,6 +1749,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,6 +1782,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Thangapalam, Shilpa (Bengaluru)" id="{600179E9-13E5-4CE8-B62D-453E609D51CB}" userId="S::shilpa.thangapalam@Fiserv.com::7516dbcd-124b-45d5-b909-f77af4b63a58" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,12 +2051,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O1" dT="2022-02-01T10:55:46.04" personId="{600179E9-13E5-4CE8-B62D-453E609D51CB}" id="{9EC073CD-B34B-4899-A24F-9C6015892423}">
+    <text>editing Amount value</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDC840-7BF6-43E0-9387-74045B013667}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="F11:N21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +2123,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>39</v>
@@ -1756,31 +2249,31 @@
         <v>50</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="AV1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>55</v>
@@ -1867,156 +2360,156 @@
         <v>90</v>
       </c>
       <c r="CE1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="CL1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DD1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CX1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DY1" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DY1" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2041,35 +2534,35 @@
         <v>66</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="AA2" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>73</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="AS2" t="s">
         <v>95</v>
       </c>
       <c r="AT2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW2" t="s">
         <v>154</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>156</v>
       </c>
       <c r="BA2" s="4"/>
       <c r="BB2" s="11" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="BC2" t="s">
         <v>74</v>
@@ -2093,13 +2586,13 @@
         <v>83</v>
       </c>
       <c r="BJ2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BK2" t="s">
         <v>73</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="CB2" t="s">
         <v>10</v>
@@ -2108,13 +2601,13 @@
         <v>86</v>
       </c>
       <c r="CD2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="CE2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="CF2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="DA2" t="s">
         <v>75</v>
@@ -2126,7 +2619,7 @@
         <v>98</v>
       </c>
       <c r="DI2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.25">
@@ -2153,15 +2646,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85603BC9-3C67-4E43-818E-912CA80B4A8C}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="15" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="21" width="28.7109375" customWidth="1"/>
+    <col min="16" max="16" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="28.7109375" customWidth="1"/>
     <col min="22" max="42" width="28.7109375" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="28.7109375" style="4" customWidth="1"/>
     <col min="44" max="57" width="28.7109375" customWidth="1"/>
@@ -2326,13 +2822,13 @@
         <v>78</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>88</v>
@@ -2344,27 +2840,27 @@
         <v>90</v>
       </c>
       <c r="BF1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="BI1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2379,19 +2875,19 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>381</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>60</v>
+        <v>382</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>121</v>
+        <v>383</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AX2" t="s">
         <v>77</v>
@@ -2400,13 +2896,13 @@
         <v>80</v>
       </c>
       <c r="AZ2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BA2" t="s">
         <v>95</v>
       </c>
       <c r="BB2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BC2" t="s">
         <v>10</v>
@@ -2418,10 +2914,10 @@
         <v>87</v>
       </c>
       <c r="BF2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2434,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079FEBA7-FD48-4110-BA2A-C0AE8E31B6C4}">
   <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView topLeftCell="Y12" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,13 +3142,13 @@
         <v>78</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>88</v>
@@ -2664,42 +3160,42 @@
         <v>90</v>
       </c>
       <c r="BU1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="BX1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="CB1" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2729,10 +3225,10 @@
         <v>66</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Z2" t="s">
         <v>98</v>
@@ -2744,7 +3240,7 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>74</v>
@@ -2756,7 +3252,7 @@
         <v>72</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="AX2" t="s">
         <v>74</v>
@@ -2771,7 +3267,7 @@
         <v>82</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="BR2" t="s">
         <v>10</v>
@@ -2783,16 +3279,16 @@
         <v>87</v>
       </c>
       <c r="BU2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BX2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BY2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="CC2" t="s">
-        <v>203</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2802,151 +3298,154 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B045698-DC01-420E-83B7-1C72FB099398}">
-  <dimension ref="A1:CE2"/>
+  <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="13" customWidth="1"/>
+    <col min="8" max="9" width="18.5703125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.7109375" style="13" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="E2" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2" t="s">
         <v>284</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT1" s="6"/>
-      <c r="CE1" s="6"/>
-    </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AT2" s="5"/>
-      <c r="AZ2" s="3"/>
-      <c r="BE2" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BF2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2955,9 +3454,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B057EAC8-BCD6-4D50-8864-B54761932902}">
-  <dimension ref="A1:CG2"/>
+  <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
@@ -2978,154 +3477,162 @@
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW1" s="6"/>
+      <c r="CH1" s="6"/>
+    </row>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>224</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E2" t="s">
         <v>217</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="F2" t="s">
         <v>284</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
-    </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>222</v>
+        <v>405</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>394</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L2" s="2">
         <v>123</v>
@@ -3134,57 +3641,61 @@
         <v>14433</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="X2" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="BC2" s="3"/>
+      <c r="BH2" s="3"/>
+    </row>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="Z3" t="s">
         <v>247</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="W2" t="s">
-        <v>251</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z2">
-        <v>45</v>
-      </c>
-      <c r="AA2">
-        <v>324</v>
-      </c>
-      <c r="AB2">
-        <v>7653</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3194,10 +3705,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7565FEA5-4C0B-4CAF-B7B8-125CCB71CB06}">
-  <dimension ref="A1:CF2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3212,160 +3723,168 @@
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU1" s="6"/>
-      <c r="CF1" s="6"/>
+      <c r="W2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="X2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="V2" t="s">
-        <v>199</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="X2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="2"/>
-      <c r="AU2" s="5"/>
-      <c r="BA2" s="3"/>
-      <c r="BF2" s="3"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V3" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3374,10 +3893,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7362DE-67A5-4BAF-8956-8A00370F26C9}">
-  <dimension ref="A1:CF2"/>
+  <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,161 +3910,177 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW1" s="6"/>
+      <c r="CH1" s="6"/>
+    </row>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU1" s="6"/>
-      <c r="CF1" s="6"/>
+      <c r="W2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="X2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="2"/>
+      <c r="AW2" s="5"/>
+      <c r="BC2" s="3"/>
+      <c r="BH2" s="3"/>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="V2" t="s">
-        <v>199</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="X2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="2"/>
-      <c r="AU2" s="5"/>
-      <c r="BA2" s="3"/>
-      <c r="BF2" s="3"/>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="V3" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3554,10 +4089,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCDBD05-31AF-4457-A4AD-D016F640CCB6}">
-  <dimension ref="A1:CF2"/>
+  <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3571,161 +4106,177 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW1" s="6"/>
+      <c r="CH1" s="6"/>
+    </row>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU1" s="6"/>
-      <c r="CF1" s="6"/>
+      <c r="W2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="X2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="2"/>
+      <c r="AW2" s="5"/>
+      <c r="BC2" s="3"/>
+      <c r="BH2" s="3"/>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="V2" t="s">
-        <v>199</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="X2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="2"/>
-      <c r="AU2" s="5"/>
-      <c r="BA2" s="3"/>
-      <c r="BF2" s="3"/>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="V3" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3733,188 +4284,207 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DFB32-C6CC-48F1-8D0E-016F9096C024}">
-  <dimension ref="A1:Z3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510DA94-D336-4FBB-8C8F-C2DC3E57BE90}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC2" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>315</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD3" t="s">
         <v>285</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="V2" t="s">
-        <v>199</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Z3" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3923,194 +4493,213 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510DA94-D336-4FBB-8C8F-C2DC3E57BE90}">
-  <dimension ref="A1:AA3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7C58A-E6DE-40DB-AF93-2461EEDA21E6}">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>255</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC3" t="s">
         <v>285</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="AA3" t="s">
-        <v>304</v>
+      <c r="AD3" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4120,16 +4709,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.85546875" customWidth="1"/>
@@ -4196,20 +4788,20 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>59</v>
@@ -4218,6 +4810,32 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4228,197 +4846,208 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7C58A-E6DE-40DB-AF93-2461EEDA21E6}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DFB32-C6CC-48F1-8D0E-016F9096C024}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>316</v>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC3" t="s">
         <v>285</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4428,10 +5057,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E11718-94A3-4542-8ED7-F90BEC9B23BC}">
-  <dimension ref="A1:CE2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,7 +5072,8 @@
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -4451,127 +5081,126 @@
     <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT1" s="6"/>
-      <c r="CE1" s="6"/>
-    </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>283</v>
+        <v>423</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>279</v>
+        <v>392</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AT2" s="5"/>
-      <c r="AZ2" s="3"/>
-      <c r="BE2" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="T2" t="s">
+        <v>404</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4579,11 +5208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3FE77-7B3C-415F-91AA-024F59D8BADE}">
-  <dimension ref="A1:CG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3FE77-7B3C-415F-91AA-024F59D8BADE}">
+  <dimension ref="A1:CK3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4598,193 +5227,214 @@
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ1" s="6"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
+      <c r="Z2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AZ2" s="5"/>
+      <c r="BF2" s="3"/>
+      <c r="BK2" s="3"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" t="s">
-        <v>328</v>
-      </c>
-      <c r="J2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AD3" t="s">
         <v>95</v>
-      </c>
-      <c r="AD2" s="2"/>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
-    </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98618334-E381-482C-990A-A06E5CC08B1F}">
-  <dimension ref="A1:CG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98618334-E381-482C-990A-A06E5CC08B1F}">
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4798,224 +5448,239 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Z2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
-    </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD2" s="2"/>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
-    </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G3" t="s">
-        <v>219</v>
-      </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C701B54-3987-483B-B118-D9F1652F7055}">
-  <dimension ref="A1:CG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C701B54-3987-483B-B118-D9F1652F7055}">
+  <dimension ref="A1:CK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5029,225 +5694,249 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>255</v>
+      <c r="B1" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ1" s="6"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Z2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AZ2" s="5"/>
+      <c r="BF2" s="3"/>
+      <c r="BK2" s="3"/>
+    </row>
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
-    </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD2" s="2"/>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
-    </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" t="s">
-        <v>219</v>
-      </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F38E0-0D8F-4112-8BAC-0EB5AE149CB6}">
-  <dimension ref="A1:CG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F38E0-0D8F-4112-8BAC-0EB5AE149CB6}">
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,216 +5950,240 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ1" s="6"/>
+      <c r="CK1" s="6"/>
+    </row>
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Z2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AZ2" s="5"/>
+      <c r="BF2" s="3"/>
+      <c r="BK2" s="3"/>
+    </row>
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
-    </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD2" s="2"/>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
-    </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" t="s">
-        <v>219</v>
-      </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5502,75 +6215,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="H2" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="L2" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5588,7 +6301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA19BC-3B73-4A57-ACE8-BA121F922A15}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -5616,111 +6329,111 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="M2" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="P2" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="H3" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="L3" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5730,117 +6443,346 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017AD199-2816-4708-9EF4-4FDF4D62C1F9}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3999615E-3286-4129-A0B4-17852BEC8FF5}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>348</v>
       </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>351</v>
+      </c>
+      <c r="R2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017AD199-2816-4708-9EF4-4FDF4D62C1F9}">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>214</v>
+        <v>442</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>373</v>
+      <c r="Z1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="2">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>2456</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="Q2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" t="s">
+        <v>390</v>
+      </c>
+      <c r="T2" t="s">
+        <v>349</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF2" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="J2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="N2" t="s">
-        <v>376</v>
-      </c>
-      <c r="O2" t="s">
-        <v>377</v>
+      <c r="AG2" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5853,13 +6795,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="18.7109375" customWidth="1"/>
     <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="45" width="18.7109375" customWidth="1"/>
     <col min="46" max="47" width="20.7109375" customWidth="1"/>
@@ -6027,10 +6973,10 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6045,7 +6991,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>71</v>
+        <v>364</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -6053,14 +6999,11 @@
       <c r="T2" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="AS2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>74</v>
+        <v>358</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -6078,6 +7021,9 @@
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="U3" s="8" t="s">
         <v>73</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="AV3" s="8" t="s">
         <v>73</v>
@@ -6089,17 +7035,1745 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E525DE2-D9E2-4E37-8A6C-D335D324AE53}">
-  <dimension ref="A1:AY2"/>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45E417-8C9E-4BA0-8D27-33A3A4594AAE}">
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" activeCellId="1" sqref="O15 N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="50" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>454</v>
+      </c>
+      <c r="V2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D471DE01-30D8-4963-98E1-0F52132FE66D}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D198D465-AE02-44C5-9325-B3B3807E6DD5}">
+  <dimension ref="A1:AH3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O2" t="s">
+        <v>351</v>
+      </c>
+      <c r="P2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>388</v>
+      </c>
+      <c r="S2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U2" t="s">
+        <v>462</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="R3" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB433F1-5A33-4F6D-B11F-1C3343D5586F}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O2" t="s">
+        <v>351</v>
+      </c>
+      <c r="P2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>388</v>
+      </c>
+      <c r="S2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R3" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F37BF56-9F6D-42B0-9F0A-7E5917BAA73B}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0FB0E1-F141-4AB2-9B55-D19558FA50BC}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2A8670-AD39-4A77-AECE-3C34ECDFC790}">
+  <dimension ref="A1:CJ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AY1" s="6"/>
+      <c r="CJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AY2" s="5"/>
+      <c r="BE2" s="3"/>
+      <c r="BJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A446D1-4937-4B2D-AFB9-B44C63F04F96}">
+  <dimension ref="A1:CJ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AY1" s="6"/>
+      <c r="CJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AY2" s="5"/>
+      <c r="BE2" s="3"/>
+      <c r="BJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E4BEF-EC3B-4052-8C30-80FB1A627D19}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E525DE2-D9E2-4E37-8A6C-D335D324AE53}">
+  <dimension ref="A1:AY3"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="26" width="18.85546875" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="18.85546875" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="18.85546875" customWidth="1"/>
+    <col min="39" max="39" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="18.85546875" customWidth="1"/>
+    <col min="48" max="48" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6261,11 +8935,11 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6279,8 +8953,8 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" t="s">
-        <v>66</v>
+      <c r="P2" s="14" t="s">
+        <v>364</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -6292,10 +8966,10 @@
         <v>82</v>
       </c>
       <c r="AS2" t="s">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="AT2" t="s">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="AU2" t="s">
         <v>81</v>
@@ -6311,6 +8985,11 @@
       </c>
       <c r="AY2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -6592,8 +9271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973B350-4CF3-4C2A-804A-DEE3D04411D2}">
   <dimension ref="A1:BN3"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="AJ1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6604,7 +9283,7 @@
     <col min="40" max="40" width="32.85546875" style="4" customWidth="1"/>
     <col min="41" max="54" width="32.85546875" customWidth="1"/>
     <col min="55" max="61" width="17" customWidth="1"/>
-    <col min="62" max="67" width="29.7109375" customWidth="1"/>
+    <col min="62" max="66" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6812,10 +9491,10 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>370</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6830,7 +9509,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>371</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s">
@@ -6840,10 +9519,10 @@
         <v>95</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>364</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="W2" t="s">
         <v>98</v>
@@ -6855,13 +9534,13 @@
         <v>82</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="AP2" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
       <c r="AQ2" t="s">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
@@ -6873,10 +9552,10 @@
         <v>59</v>
       </c>
       <c r="AU2" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
       <c r="AV2" t="s">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="AW2" t="s">
         <v>97</v>
@@ -6885,7 +9564,7 @@
         <v>82</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="BK2" t="s">
         <v>79</v>
@@ -6912,15 +9591,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D6DB9E-D6BE-4CF9-8F3B-E46C1E6DFB58}">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="42" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="42" width="33.7109375" customWidth="1"/>
     <col min="43" max="43" width="33.7109375" style="4" customWidth="1"/>
-    <col min="44" max="76" width="33.7109375" customWidth="1"/>
+    <col min="44" max="69" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7136,14 +9819,13 @@
       <c r="A2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+      <c r="B2" t="s">
+        <v>377</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -7154,8 +9836,8 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>120</v>
+      <c r="P2" t="s">
+        <v>378</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -7163,17 +9845,20 @@
       <c r="T2" t="s">
         <v>72</v>
       </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
       <c r="V2" t="s">
         <v>95</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" t="s">
-        <v>115</v>
+        <v>373</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="Z2" t="s">
         <v>98</v>
@@ -7185,13 +9870,13 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -7200,10 +9885,10 @@
         <v>59</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="AZ2" t="s">
         <v>97</v>
@@ -7231,17 +9916,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF768A6-934E-455D-B824-BBCE0329EDA5}">
   <dimension ref="A1:CA2"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="47" width="27" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="27" customWidth="1"/>
+    <col min="17" max="17" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="47" width="27" customWidth="1"/>
     <col min="48" max="49" width="30.7109375" customWidth="1"/>
     <col min="50" max="52" width="27" customWidth="1"/>
     <col min="53" max="54" width="27" style="4" customWidth="1"/>
-    <col min="55" max="81" width="27" customWidth="1"/>
+    <col min="55" max="79" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7255,7 +9944,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>39</v>
@@ -7381,31 +10070,31 @@
         <v>50</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="AV1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>55</v>
@@ -7485,25 +10174,25 @@
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>71</v>
+      <c r="F2" t="s">
+        <v>371</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>81</v>
@@ -7517,38 +10206,38 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>66</v>
+        <v>373</v>
       </c>
       <c r="V2" t="s">
         <v>82</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AR2" s="5" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="AS2" t="s">
         <v>95</v>
       </c>
       <c r="AT2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AU2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AV2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>83</v>
+        <v>375</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>357</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>358</v>
       </c>
       <c r="BE2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BF2" t="s">
         <v>82</v>
@@ -7556,11 +10245,11 @@
       <c r="BG2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" s="2" t="s">
-        <v>74</v>
+      <c r="BH2" t="s">
+        <v>357</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="BJ2" t="s">
         <v>81</v>
@@ -7588,15 +10277,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B69DAD-3AA9-4C61-817E-8CB68A4FC100}">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="U2" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="15" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="20" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="24.42578125" customWidth="1"/>
     <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="42" width="24.42578125" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="24.42578125" style="4" customWidth="1"/>
@@ -7759,72 +10452,72 @@
         <v>62</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="BP1" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -7838,8 +10531,8 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>71</v>
+      <c r="P2" t="s">
+        <v>371</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -7848,13 +10541,13 @@
         <v>72</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>299</v>
+        <v>376</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -7870,13 +10563,13 @@
         <v>79</v>
       </c>
       <c r="BA2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="BL2" t="s">
         <v>75</v>

--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136509BF-CC75-412B-A1F9-ACB1C85EDFDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F77C2B-98AA-4545-A0E1-93BEEC06C294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="26" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -30,9 +30,9 @@
     <sheet name="CC_CORP_TC014" sheetId="16" r:id="rId15"/>
     <sheet name="CC_CORP_TC015" sheetId="17" r:id="rId16"/>
     <sheet name="CC_CORP_TC016" sheetId="20" r:id="rId17"/>
-    <sheet name="CC_CORP_TC019" sheetId="18" r:id="rId18"/>
-    <sheet name="CC_CORP_TC017" sheetId="21" r:id="rId19"/>
-    <sheet name="CC_CORP_TC018" sheetId="22" r:id="rId20"/>
+    <sheet name="CC_CORP_TC017" sheetId="21" r:id="rId18"/>
+    <sheet name="CC_CORP_TC018" sheetId="22" r:id="rId19"/>
+    <sheet name="CC_CORP_TC019" sheetId="18" r:id="rId20"/>
     <sheet name="CC_CORP_TC020" sheetId="19" r:id="rId21"/>
     <sheet name="CC_CORP_TC021" sheetId="23" r:id="rId22"/>
     <sheet name="CC_CORP_TC022" sheetId="25" r:id="rId23"/>
@@ -42,8 +42,15 @@
     <sheet name="CC_CORP_TC026" sheetId="29" r:id="rId27"/>
     <sheet name="CC_CORP_TC027" sheetId="32" r:id="rId28"/>
     <sheet name="CC_CORP_TC028" sheetId="30" r:id="rId29"/>
-    <sheet name="CC_CORP_TC039" sheetId="31" r:id="rId30"/>
-    <sheet name="CC_CORP_TC032" sheetId="33" r:id="rId31"/>
+    <sheet name="CC_CORP_TC029" sheetId="37" r:id="rId30"/>
+    <sheet name="CC_CORP_TC030" sheetId="38" r:id="rId31"/>
+    <sheet name="CC_CORP_TC031" sheetId="39" r:id="rId32"/>
+    <sheet name="CC_CORP_TC032" sheetId="33" r:id="rId33"/>
+    <sheet name="CC_CORP_TC033" sheetId="40" r:id="rId34"/>
+    <sheet name="CC_CORP_TC034" sheetId="41" r:id="rId35"/>
+    <sheet name="CC_CORP_TC037" sheetId="34" r:id="rId36"/>
+    <sheet name="CC_CORP_TC038" sheetId="35" r:id="rId37"/>
+    <sheet name="CC_CORP_TC039" sheetId="31" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,8 +69,176 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thangapalam, Shilpa</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{813C12A1-18C5-45E4-A672-5E8D76455F1D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same name as Payee name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C412B8DA-A431-4978-8B8A-ECC2EED211F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same name as Create Payee Name</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9EC073CD-B34B-4899-A24F-9C6015892423}</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{9EC073CD-B34B-4899-A24F-9C6015892423}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    editing Amount value</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thangapalam, Shilpa</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{10C3927B-DF76-4B70-A30C-0CC4B0C57D42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Editing new amount needs to be entered</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{FB239D31-B385-4BCC-BA6F-2128EA65E250}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Editing new amount needs to be entered</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thangapalam, Shilpa</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{FA421FAD-845A-4EC5-BEA5-4EBC26573612}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Editing Amount field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="465">
   <si>
     <t>TestID</t>
   </si>
@@ -797,9 +972,6 @@
     <t>011000206</t>
   </si>
   <si>
-    <t>testing1</t>
-  </si>
-  <si>
     <t>Testing2</t>
   </si>
   <si>
@@ -809,15 +981,9 @@
     <t>011000015</t>
   </si>
   <si>
-    <t xml:space="preserve">Test (123) </t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
-    <t>'BANK OF AMERICA N.A</t>
-  </si>
-  <si>
     <t>CC_CORP_TC014</t>
   </si>
   <si>
@@ -851,39 +1017,21 @@
     <t>PayeeName</t>
   </si>
   <si>
-    <t>Demo (324)</t>
-  </si>
-  <si>
-    <t>$45.00</t>
-  </si>
-  <si>
-    <t>12/21/2021</t>
-  </si>
-  <si>
     <t>CC_CORP_TC015</t>
   </si>
   <si>
-    <t>12/22/2021</t>
-  </si>
-  <si>
     <t>CC_CORP_TC016</t>
   </si>
   <si>
     <t>011000206||011000028</t>
   </si>
   <si>
-    <t>JD1||Mathe</t>
-  </si>
-  <si>
     <t>BANK OF AMERICA N.A||STATE STREET BOSTON</t>
   </si>
   <si>
     <t>Internet Authorization||Physical Authorization</t>
   </si>
   <si>
-    <t>152||27</t>
-  </si>
-  <si>
     <t>Confidential</t>
   </si>
   <si>
@@ -893,9 +1041,6 @@
     <t>CC_CORP_TC020</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>132</t>
   </si>
   <si>
@@ -905,9 +1050,6 @@
     <t>ACH Demo</t>
   </si>
   <si>
-    <t>Jerry</t>
-  </si>
-  <si>
     <t>Addenda</t>
   </si>
   <si>
@@ -956,9 +1098,6 @@
     <t>tester (122)</t>
   </si>
   <si>
-    <t>1/06/2022</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -983,9 +1122,6 @@
     <t>134</t>
   </si>
   <si>
-    <t>1/07/2022</t>
-  </si>
-  <si>
     <t>ExistPayeeName</t>
   </si>
   <si>
@@ -1031,9 +1167,6 @@
     <t>Aila</t>
   </si>
   <si>
-    <t>sendRemittanceToPayee</t>
-  </si>
-  <si>
     <t>CC_CORP_TC022</t>
   </si>
   <si>
@@ -1049,9 +1182,6 @@
     <t>CC_CORP_TC024</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
     <t>CC_CORP_TC025</t>
   </si>
   <si>
@@ -1139,9 +1269,6 @@
     <t>CC_CORP_TC027</t>
   </si>
   <si>
-    <t>*1234 - DDA (USD)</t>
-  </si>
-  <si>
     <t>BeneIdType</t>
   </si>
   <si>
@@ -1196,9 +1323,6 @@
     <t>test payment</t>
   </si>
   <si>
-    <t>1/25/2022</t>
-  </si>
-  <si>
     <t>Clara</t>
   </si>
   <si>
@@ -1271,25 +1395,244 @@
     <t>CC_CORP_TC028</t>
   </si>
   <si>
-    <t>FreeFormTempalte</t>
-  </si>
-  <si>
     <t>RepetitiveButton</t>
   </si>
   <si>
     <t>BeneID</t>
   </si>
   <si>
-    <t>beneAddress1</t>
-  </si>
-  <si>
     <t>CC_CORP_TC032</t>
   </si>
   <si>
-    <t>Wire Transfers</t>
-  </si>
-  <si>
-    <t>Atester</t>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>01/31/2022</t>
+  </si>
+  <si>
+    <t>NewTemp</t>
+  </si>
+  <si>
+    <t>FreeFormTemplate</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ACH Testing</t>
+  </si>
+  <si>
+    <t>*6834 - SDA (USD)</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>7653</t>
+  </si>
+  <si>
+    <t>*1805 - DDA (12) (USD)</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC037</t>
+  </si>
+  <si>
+    <t>02/01/2022</t>
+  </si>
+  <si>
+    <t>EditAddenda</t>
+  </si>
+  <si>
+    <t>testing||tester</t>
+  </si>
+  <si>
+    <t>06||11</t>
+  </si>
+  <si>
+    <t>John||Mathew</t>
+  </si>
+  <si>
+    <t>No||No</t>
+  </si>
+  <si>
+    <t>Test EntryData</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>$12.00</t>
+  </si>
+  <si>
+    <t>John1</t>
+  </si>
+  <si>
+    <t>PaymentAmount</t>
+  </si>
+  <si>
+    <t>$5.00</t>
+  </si>
+  <si>
+    <t>$8.00</t>
+  </si>
+  <si>
+    <t>AmountReview</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>$9.00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>$11.00</t>
+  </si>
+  <si>
+    <t>$10.00</t>
+  </si>
+  <si>
+    <t>Test CompanyData</t>
+  </si>
+  <si>
+    <t>Test Entry</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>$7.00</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>EditTransactionStatus</t>
+  </si>
+  <si>
+    <t>Pending Repair</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC038</t>
+  </si>
+  <si>
+    <t>CreateMixedDebitOrCredit</t>
+  </si>
+  <si>
+    <t>Update_CreateMixedDebitOrCredit</t>
+  </si>
+  <si>
+    <t>Pending Delivery</t>
+  </si>
+  <si>
+    <t>ExistWireTemplateName</t>
+  </si>
+  <si>
+    <t>New Wire</t>
+  </si>
+  <si>
+    <t>Update_Payee</t>
+  </si>
+  <si>
+    <t>Update_BeneIdType</t>
+  </si>
+  <si>
+    <t>Update_BeneID</t>
+  </si>
+  <si>
+    <t>Update_BeneAddress1</t>
+  </si>
+  <si>
+    <t>Update_BeneAddress2</t>
+  </si>
+  <si>
+    <t>Update_BeneCountry</t>
+  </si>
+  <si>
+    <t>Update_BeneBankIDType</t>
+  </si>
+  <si>
+    <t>Update_PaymentCurrency</t>
+  </si>
+  <si>
+    <t>Update_BeneBankID</t>
+  </si>
+  <si>
+    <t>Update_PurposeOfPayment</t>
+  </si>
+  <si>
+    <t>Update_BeneBankAddress1</t>
+  </si>
+  <si>
+    <t>Update_BeneBankAddress2</t>
+  </si>
+  <si>
+    <t>Terrance</t>
+  </si>
+  <si>
+    <t>ExistingWireTemplate</t>
+  </si>
+  <si>
+    <t>WireTemplate</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC029</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC030</t>
+  </si>
+  <si>
+    <t>WireNewTemplate</t>
+  </si>
+  <si>
+    <t>NewTester</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>NewTransfer</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC031</t>
+  </si>
+  <si>
+    <t>Update_DebitAccount</t>
+  </si>
+  <si>
+    <t>Update_BeneId</t>
+  </si>
+  <si>
+    <t>Near Metro</t>
+  </si>
+  <si>
+    <t>NewEdit</t>
+  </si>
+  <si>
+    <t>$14.00</t>
+  </si>
+  <si>
+    <t>EditTransferTest</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC033</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC034</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,8 +1658,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,6 +1694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,7 +1731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1385,6 +1753,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,6 +1782,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Thangapalam, Shilpa (Bengaluru)" id="{600179E9-13E5-4CE8-B62D-453E609D51CB}" userId="S::shilpa.thangapalam@Fiserv.com::7516dbcd-124b-45d5-b909-f77af4b63a58" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1663,12 +2051,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O1" dT="2022-02-01T10:55:46.04" personId="{600179E9-13E5-4CE8-B62D-453E609D51CB}" id="{9EC073CD-B34B-4899-A24F-9C6015892423}">
+    <text>editing Amount value</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDC840-7BF6-43E0-9387-74045B013667}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="F11:N21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2509,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2138,10 +2534,10 @@
         <v>66</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AA2" t="s">
         <v>98</v>
@@ -2153,7 +2549,7 @@
         <v>73</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AS2" t="s">
         <v>95</v>
@@ -2166,7 +2562,7 @@
       </c>
       <c r="BA2" s="4"/>
       <c r="BB2" s="11" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="BC2" t="s">
         <v>74</v>
@@ -2461,10 +2857,10 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2479,19 +2875,19 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AX2" t="s">
         <v>77</v>
@@ -2799,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2829,10 +3225,10 @@
         <v>66</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Z2" t="s">
         <v>98</v>
@@ -2844,7 +3240,7 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>74</v>
@@ -2856,7 +3252,7 @@
         <v>72</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AX2" t="s">
         <v>74</v>
@@ -2871,7 +3267,7 @@
         <v>82</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="BR2" t="s">
         <v>10</v>
@@ -2892,7 +3288,7 @@
         <v>140</v>
       </c>
       <c r="CC2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2902,151 +3298,154 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B045698-DC01-420E-83B7-1C72FB099398}">
-  <dimension ref="A1:CE2"/>
+  <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="13" customWidth="1"/>
+    <col min="8" max="9" width="18.5703125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.7109375" style="13" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2" t="s">
         <v>284</v>
       </c>
-      <c r="AT1" s="6"/>
-      <c r="CE1" s="6"/>
-    </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" t="s">
-        <v>218</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AT2" s="5"/>
-      <c r="AZ2" s="3"/>
-      <c r="BE2" s="3"/>
+      <c r="O2" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BF2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3055,9 +3454,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B057EAC8-BCD6-4D50-8864-B54761932902}">
-  <dimension ref="A1:CG2"/>
+  <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
@@ -3078,24 +3477,26 @@
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3145,60 +3546,66 @@
         <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
+        <v>431</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW1" s="6"/>
+      <c r="CH1" s="6"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -3212,20 +3619,20 @@
         <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>219</v>
+        <v>405</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>394</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>220</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L2" s="2">
         <v>123</v>
@@ -3234,7 +3641,7 @@
         <v>14433</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>222</v>
@@ -3242,49 +3649,53 @@
       <c r="P2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="W2" t="s">
-        <v>248</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z2">
-        <v>45</v>
-      </c>
-      <c r="AA2">
-        <v>324</v>
-      </c>
-      <c r="AB2">
-        <v>7653</v>
+      <c r="X2" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="AC2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="AE2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="BC2" s="3"/>
+      <c r="BH2" s="3"/>
+    </row>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="Z3" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3294,10 +3705,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7565FEA5-4C0B-4CAF-B7B8-125CCB71CB06}">
-  <dimension ref="A1:CF2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,36 +3723,38 @@
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>204</v>
@@ -3359,113 +3772,119 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU1" s="6"/>
-      <c r="CF1" s="6"/>
+      <c r="Y1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
         <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="X2" t="s">
         <v>197</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="2"/>
-      <c r="AU2" s="5"/>
-      <c r="BA2" s="3"/>
-      <c r="BF2" s="3"/>
+      <c r="Y2" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V3" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3474,10 +3893,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7362DE-67A5-4BAF-8956-8A00370F26C9}">
-  <dimension ref="A1:CF2"/>
+  <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,37 +3910,38 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>204</v>
@@ -3539,113 +3959,128 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU1" s="6"/>
-      <c r="CF1" s="6"/>
+      <c r="Y1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW1" s="6"/>
+      <c r="CH1" s="6"/>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
         <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="X2" t="s">
         <v>197</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z2" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AU2" s="5"/>
-      <c r="BA2" s="3"/>
-      <c r="BF2" s="3"/>
+      <c r="AE2" s="2"/>
+      <c r="AW2" s="5"/>
+      <c r="BC2" s="3"/>
+      <c r="BH2" s="3"/>
+    </row>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="V3" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3654,10 +4089,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCDBD05-31AF-4457-A4AD-D016F640CCB6}">
-  <dimension ref="A1:CF2"/>
+  <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,37 +4106,38 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>204</v>
@@ -3719,113 +4155,128 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU1" s="6"/>
-      <c r="CF1" s="6"/>
+      <c r="Y1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW1" s="6"/>
+      <c r="CH1" s="6"/>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
         <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="X2" t="s">
         <v>197</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z2" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AU2" s="5"/>
-      <c r="BA2" s="3"/>
-      <c r="BF2" s="3"/>
+      <c r="AE2" s="2"/>
+      <c r="AW2" s="5"/>
+      <c r="BC2" s="3"/>
+      <c r="BH2" s="3"/>
+    </row>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="V3" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3833,188 +4284,207 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DFB32-C6CC-48F1-8D0E-016F9096C024}">
-  <dimension ref="A1:Z3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510DA94-D336-4FBB-8C8F-C2DC3E57BE90}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
         <v>284</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>307</v>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="V2" t="s">
-        <v>197</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Z3" t="s">
-        <v>296</v>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4023,193 +4493,212 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510DA94-D336-4FBB-8C8F-C2DC3E57BE90}">
-  <dimension ref="A1:AA3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7C58A-E6DE-40DB-AF93-2461EEDA21E6}">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>252</v>
+      <c r="AC1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" t="s">
         <v>241</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>216</v>
       </c>
-      <c r="F2" t="s">
-        <v>279</v>
-      </c>
       <c r="G2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>219</v>
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>420</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>421</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>298</v>
+      <c r="L2" s="2"/>
+      <c r="M2" s="12" t="s">
+        <v>422</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>299</v>
+        <v>415</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="W2" t="s">
+        <v>271</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y2" t="s">
         <v>197</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>259</v>
+      <c r="Z2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="AA3" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4300,19 +4789,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="J2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="K2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>59</v>
@@ -4357,197 +4846,208 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7C58A-E6DE-40DB-AF93-2461EEDA21E6}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DFB32-C6CC-48F1-8D0E-016F9096C024}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>308</v>
+      <c r="AC1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
         <v>241</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>216</v>
       </c>
-      <c r="F2" t="s">
-        <v>279</v>
-      </c>
       <c r="G2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>219</v>
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>297</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y2" t="s">
         <v>197</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>309</v>
+      <c r="Z2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4557,10 +5057,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E11718-94A3-4542-8ED7-F90BEC9B23BC}">
-  <dimension ref="A1:CE2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,7 +5072,8 @@
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -4580,10 +5081,11 @@
     <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4609,7 +5111,7 @@
         <v>208</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>210</v>
@@ -4636,17 +5138,18 @@
         <v>215</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>281</v>
+        <v>430</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AT1" s="6"/>
-      <c r="CE1" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
         <v>241</v>
@@ -4655,7 +5158,7 @@
         <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
         <v>218</v>
@@ -4664,23 +5167,23 @@
         <v>219</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>423</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>243</v>
@@ -4691,16 +5194,13 @@
       <c r="Q2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AT2" s="5"/>
-      <c r="AZ2" s="3"/>
-      <c r="BE2" s="3"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="T2" t="s">
+        <v>404</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4708,11 +5208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3FE77-7B3C-415F-91AA-024F59D8BADE}">
-  <dimension ref="A1:CG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3FE77-7B3C-415F-91AA-024F59D8BADE}">
+  <dimension ref="A1:CK3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,28 +5227,30 @@
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -4759,11 +5261,11 @@
       <c r="E1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>204</v>
@@ -4781,53 +5283,65 @@
         <v>208</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
+      <c r="AD1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ1" s="6"/>
+      <c r="CK1" s="6"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
@@ -4836,84 +5350,91 @@
         <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>318</v>
+        <v>399</v>
       </c>
       <c r="H2" t="s">
         <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="J2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>15</v>
+        <v>394</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA2" t="s">
         <v>197</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AZ2" s="5"/>
+      <c r="BF2" s="3"/>
+      <c r="BK2" s="3"/>
+    </row>
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD3" t="s">
         <v>95</v>
-      </c>
-      <c r="AD2" s="2"/>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
-    </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98618334-E381-482C-990A-A06E5CC08B1F}">
-  <dimension ref="A1:CG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98618334-E381-482C-990A-A06E5CC08B1F}">
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,37 +5448,39 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -4969,7 +5492,7 @@
         <v>209</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>204</v>
@@ -4987,164 +5510,177 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
+      <c r="AJ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="L2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="W2" t="s">
+        <v>408</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z2" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
+      <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C701B54-3987-483B-B118-D9F1652F7055}">
-  <dimension ref="A1:CG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C701B54-3987-483B-B118-D9F1652F7055}">
+  <dimension ref="A1:CK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5158,37 +5694,40 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>252</v>
+      <c r="B1" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -5200,7 +5739,7 @@
         <v>209</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>204</v>
@@ -5218,165 +5757,186 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
+      <c r="AJ1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ1" s="6"/>
+      <c r="CK1" s="6"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>217</v>
+        <v>312</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="L2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="W2" t="s">
+        <v>408</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z2" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
+      <c r="AG2" s="2"/>
+      <c r="AZ2" s="5"/>
+      <c r="BF2" s="3"/>
+      <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F38E0-0D8F-4112-8BAC-0EB5AE149CB6}">
-  <dimension ref="A1:CG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F38E0-0D8F-4112-8BAC-0EB5AE149CB6}">
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5390,37 +5950,40 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -5432,7 +5995,7 @@
         <v>209</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>204</v>
@@ -5450,156 +6013,177 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AV1" s="6"/>
-      <c r="CG1" s="6"/>
+      <c r="AJ1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ1" s="6"/>
+      <c r="CK1" s="6"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="L2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="W2" t="s">
+        <v>408</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z2" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AV2" s="5"/>
-      <c r="BB2" s="3"/>
-      <c r="BG2" s="3"/>
+      <c r="AG2" s="2"/>
+      <c r="AZ2" s="5"/>
+      <c r="BF2" s="3"/>
+      <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5631,75 +6215,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" t="s">
         <v>329</v>
       </c>
-      <c r="B2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" t="s">
-        <v>344</v>
-      </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="L2" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5717,7 +6301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA19BC-3B73-4A57-ACE8-BA121F922A15}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -5745,49 +6329,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>211</v>
@@ -5795,61 +6379,61 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="M2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="P2" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="I3" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="L3" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5860,116 +6444,133 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3999615E-3286-4129-A0B4-17852BEC8FF5}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q2" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="R2" t="s">
         <v>352</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="2">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J2" t="s">
-        <v>355</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="N2" t="s">
-        <v>367</v>
-      </c>
-      <c r="O2" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5980,105 +6581,209 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017AD199-2816-4708-9EF4-4FDF4D62C1F9}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>403</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>351</v>
+      <c r="AD1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
+        <v>434</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>2456</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
+      <c r="Q2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" t="s">
+        <v>390</v>
+      </c>
+      <c r="T2" t="s">
+        <v>349</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>352</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6268,10 +6973,10 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6286,7 +6991,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -6295,10 +7000,10 @@
         <v>72</v>
       </c>
       <c r="AS2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -6318,7 +7023,7 @@
         <v>73</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="AV3" s="8" t="s">
         <v>73</v>
@@ -6331,11 +7036,1096 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E4BEF-EC3B-4052-8C30-80FB1A627D19}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45E417-8C9E-4BA0-8D27-33A3A4594AAE}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" activeCellId="1" sqref="O15 N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>454</v>
+      </c>
+      <c r="V2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D471DE01-30D8-4963-98E1-0F52132FE66D}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D198D465-AE02-44C5-9325-B3B3807E6DD5}">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="AH2" sqref="AH2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O2" t="s">
+        <v>351</v>
+      </c>
+      <c r="P2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>388</v>
+      </c>
+      <c r="S2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U2" t="s">
+        <v>462</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="R3" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB433F1-5A33-4F6D-B11F-1C3343D5586F}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O2" t="s">
+        <v>351</v>
+      </c>
+      <c r="P2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>388</v>
+      </c>
+      <c r="S2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R3" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F37BF56-9F6D-42B0-9F0A-7E5917BAA73B}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0FB0E1-F141-4AB2-9B55-D19558FA50BC}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2A8670-AD39-4A77-AECE-3C34ECDFC790}">
+  <dimension ref="A1:CJ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6343,183 +8133,197 @@
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AY1" s="6"/>
+      <c r="CJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="J2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AY2" s="5"/>
+      <c r="BE2" s="3"/>
+      <c r="BJ2" s="3"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="W2" t="s">
-        <v>197</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="R3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>282</v>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -6527,132 +8331,409 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB433F1-5A33-4F6D-B11F-1C3343D5586F}">
-  <dimension ref="A1:P2"/>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A446D1-4937-4B2D-AFB9-B44C63F04F96}">
+  <dimension ref="A1:CJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>351</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AY1" s="6"/>
+      <c r="CJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AY2" s="5"/>
+      <c r="BE2" s="3"/>
+      <c r="BJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E4BEF-EC3B-4052-8C30-80FB1A627D19}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>191</v>
+      <c r="Q2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="2">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N2" t="s">
-        <v>367</v>
-      </c>
-      <c r="O2" t="s">
-        <v>368</v>
-      </c>
-      <c r="P2" t="s">
-        <v>407</v>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6855,7 +8936,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -6873,7 +8954,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="14" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -6885,10 +8966,10 @@
         <v>82</v>
       </c>
       <c r="AS2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AT2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AU2" t="s">
         <v>81</v>
@@ -6908,7 +8989,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -7410,7 +9491,7 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -7428,7 +9509,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s">
@@ -7438,10 +9519,10 @@
         <v>95</v>
       </c>
       <c r="U2" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="W2" t="s">
         <v>98</v>
@@ -7453,13 +9534,13 @@
         <v>82</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AP2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AQ2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
@@ -7471,10 +9552,10 @@
         <v>59</v>
       </c>
       <c r="AU2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AV2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AW2" t="s">
         <v>97</v>
@@ -7483,7 +9564,7 @@
         <v>82</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="BK2" t="s">
         <v>79</v>
@@ -7739,10 +9820,10 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
@@ -7756,7 +9837,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -7771,13 +9852,13 @@
         <v>95</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Z2" t="s">
         <v>98</v>
@@ -7789,13 +9870,13 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -7804,10 +9885,10 @@
         <v>59</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="AZ2" t="s">
         <v>97</v>
@@ -8096,10 +10177,10 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>122</v>
@@ -8108,10 +10189,10 @@
         <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>81</v>
@@ -8125,14 +10206,14 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="V2" t="s">
         <v>82</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AR2" s="5" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AS2" t="s">
         <v>95</v>
@@ -8147,13 +10228,13 @@
         <v>129</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="BC2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="BD2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="BE2" t="s">
         <v>122</v>
@@ -8165,10 +10246,10 @@
         <v>59</v>
       </c>
       <c r="BH2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="BJ2" t="s">
         <v>81</v>
@@ -8422,10 +10503,10 @@
         <v>150</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
@@ -8433,10 +10514,10 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8451,7 +10532,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -8460,13 +10541,13 @@
         <v>72</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -8488,7 +10569,7 @@
         <v>140</v>
       </c>
       <c r="BC2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="BL2" t="s">
         <v>75</v>

--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F77C2B-98AA-4545-A0E1-93BEEC06C294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99CD103-D547-479D-BF26-63EC5BA3454A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="31" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -48,9 +48,10 @@
     <sheet name="CC_CORP_TC032" sheetId="33" r:id="rId33"/>
     <sheet name="CC_CORP_TC033" sheetId="40" r:id="rId34"/>
     <sheet name="CC_CORP_TC034" sheetId="41" r:id="rId35"/>
-    <sheet name="CC_CORP_TC037" sheetId="34" r:id="rId36"/>
-    <sheet name="CC_CORP_TC038" sheetId="35" r:id="rId37"/>
-    <sheet name="CC_CORP_TC039" sheetId="31" r:id="rId38"/>
+    <sheet name="CC_CORP_TC036" sheetId="42" r:id="rId36"/>
+    <sheet name="CC_CORP_TC038" sheetId="34" r:id="rId37"/>
+    <sheet name="CC_CORP_TC039" sheetId="35" r:id="rId38"/>
+    <sheet name="CC_CORP_TC040" sheetId="31" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="472">
   <si>
     <t>TestID</t>
   </si>
@@ -1434,9 +1435,6 @@
     <t>*1805 - DDA (12) (USD)</t>
   </si>
   <si>
-    <t>CC_CORP_TC037</t>
-  </si>
-  <si>
     <t>02/01/2022</t>
   </si>
   <si>
@@ -1633,6 +1631,30 @@
   </si>
   <si>
     <t>CC_CORP_TC034</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC040</t>
+  </si>
+  <si>
+    <t>ExistingPayee</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC036</t>
+  </si>
+  <si>
+    <t>shop rent</t>
+  </si>
+  <si>
+    <t>1141805 - DDA (12) (USD)</t>
+  </si>
+  <si>
+    <t>WirePayee1</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>$13.00</t>
   </si>
 </sst>
 </file>
@@ -3380,7 +3402,7 @@
         <v>215</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>270</v>
@@ -3406,7 +3428,7 @@
         <v>284</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>394</v>
@@ -3416,10 +3438,10 @@
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>229</v>
@@ -3437,10 +3459,10 @@
         <v>263</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC2" s="7"/>
       <c r="AU2" s="7"/>
@@ -3546,7 +3568,7 @@
         <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>238</v>
@@ -3594,7 +3616,7 @@
         <v>237</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>272</v>
@@ -3622,7 +3644,7 @@
         <v>284</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>394</v>
@@ -3660,7 +3682,7 @@
         <v>244</v>
       </c>
       <c r="X2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="AA2" s="2" t="s">
@@ -3772,7 +3794,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -3799,7 +3821,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>191</v>
@@ -3808,7 +3830,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>198</v>
@@ -3847,7 +3869,7 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>245</v>
@@ -3872,7 +3894,7 @@
         <v>256</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
@@ -3959,7 +3981,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -3986,7 +4008,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>191</v>
@@ -3995,7 +4017,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>198</v>
@@ -4032,14 +4054,14 @@
         <v>394</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>254</v>
@@ -4061,7 +4083,7 @@
         <v>256</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
@@ -4155,7 +4177,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -4182,7 +4204,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>191</v>
@@ -4191,7 +4213,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>198</v>
@@ -4228,14 +4250,14 @@
         <v>394</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>254</v>
@@ -4257,7 +4279,7 @@
         <v>256</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
@@ -4354,7 +4376,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>264</v>
@@ -4384,7 +4406,7 @@
         <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>270</v>
@@ -4396,7 +4418,7 @@
         <v>49</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>198</v>
@@ -4591,7 +4613,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>270</v>
@@ -4603,7 +4625,7 @@
         <v>49</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>198</v>
@@ -4624,7 +4646,7 @@
         <v>295</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -4641,10 +4663,10 @@
         <v>269</v>
       </c>
       <c r="H2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>397</v>
@@ -4654,10 +4676,10 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>287</v>
@@ -4679,7 +4701,7 @@
         <v>271</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Y2" t="s">
         <v>197</v>
@@ -4916,7 +4938,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>264</v>
@@ -4946,7 +4968,7 @@
         <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>270</v>
@@ -4973,7 +4995,7 @@
         <v>294</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -5007,7 +5029,7 @@
         <v>299</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>287</v>
@@ -5039,7 +5061,7 @@
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -5138,7 +5160,7 @@
         <v>215</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>270</v>
@@ -5174,7 +5196,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>392</v>
@@ -5199,7 +5221,7 @@
         <v>271</v>
       </c>
       <c r="T2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -5283,7 +5305,7 @@
         <v>208</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>210</v>
@@ -5298,7 +5320,7 @@
         <v>211</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>212</v>
@@ -5316,7 +5338,7 @@
         <v>215</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>191</v>
@@ -5353,7 +5375,7 @@
         <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2" t="s">
         <v>216</v>
@@ -5402,7 +5424,7 @@
         <v>256</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA2" t="s">
         <v>197</v>
@@ -5510,7 +5532,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>210</v>
@@ -5522,7 +5544,7 @@
         <v>211</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>253</v>
@@ -5543,7 +5565,7 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>191</v>
@@ -5603,13 +5625,13 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>392</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="X2" s="2" t="s">
@@ -5757,7 +5779,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>210</v>
@@ -5769,7 +5791,7 @@
         <v>211</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>253</v>
@@ -5790,7 +5812,7 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>191</v>
@@ -5829,7 +5851,7 @@
         <v>237</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>310</v>
@@ -5851,17 +5873,17 @@
         <v>241</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>392</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="X2" s="2" t="s">
@@ -6013,7 +6035,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>210</v>
@@ -6025,7 +6047,7 @@
         <v>211</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>253</v>
@@ -6046,7 +6068,7 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>191</v>
@@ -6085,7 +6107,7 @@
         <v>237</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>310</v>
@@ -6107,17 +6129,17 @@
         <v>241</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="X2" s="2" t="s">
@@ -6302,7 +6324,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6318,7 +6340,7 @@
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -6362,7 +6384,7 @@
         <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>335</v>
+        <v>465</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>336</v>
@@ -6617,49 +6639,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>232</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>391</v>
@@ -6718,13 +6740,13 @@
         <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -7072,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7084,7 +7106,7 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
@@ -7140,7 +7162,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>392</v>
@@ -7149,7 +7171,7 @@
         <v>388</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
@@ -7158,10 +7180,10 @@
         <v>95</v>
       </c>
       <c r="J2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K2" t="s">
         <v>452</v>
-      </c>
-      <c r="K2" t="s">
-        <v>453</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>397</v>
@@ -7191,7 +7213,7 @@
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V2" t="s">
         <v>351</v>
@@ -7243,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7255,7 +7277,7 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
@@ -7311,10 +7333,10 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>392</v>
@@ -7323,7 +7345,7 @@
         <v>388</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
@@ -7332,7 +7354,7 @@
         <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K2" t="s">
         <v>349</v>
@@ -7458,7 +7480,7 @@
         <v>211</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>322</v>
@@ -7482,57 +7504,57 @@
         <v>198</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>232</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>397</v>
@@ -7562,7 +7584,7 @@
         <v>287</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>246</v>
@@ -7583,10 +7605,10 @@
         <v>197</v>
       </c>
       <c r="T2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="V2" s="2"/>
       <c r="X2" s="2"/>
@@ -7598,10 +7620,10 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -7680,7 +7702,7 @@
         <v>211</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>322</v>
@@ -7704,7 +7726,7 @@
         <v>198</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -7712,7 +7734,7 @@
         <v>387</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>397</v>
@@ -7742,7 +7764,7 @@
         <v>245</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>246</v>
@@ -7763,7 +7785,7 @@
         <v>197</v>
       </c>
       <c r="T2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -7813,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7825,7 +7847,7 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
@@ -7881,7 +7903,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
@@ -7894,13 +7916,13 @@
         <v>388</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K2" t="s">
         <v>349</v>
@@ -7952,8 +7974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0FB0E1-F141-4AB2-9B55-D19558FA50BC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7985,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7997,7 +8019,7 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
@@ -8053,7 +8075,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
@@ -8066,13 +8088,13 @@
         <v>388</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K2" t="s">
         <v>349</v>
@@ -8121,11 +8143,168 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B42C8BC-5399-49AF-97C4-BCE5DB8AFAFA}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9876</v>
+      </c>
+      <c r="H2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P2" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="R2" t="s">
+        <v>388</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2A8670-AD39-4A77-AECE-3C34ECDFC790}">
   <dimension ref="A1:CJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8191,7 +8370,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -8203,7 +8382,7 @@
         <v>211</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>212</v>
@@ -8221,7 +8400,7 @@
         <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>191</v>
@@ -8236,7 +8415,7 @@
         <v>198</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>270</v>
@@ -8245,14 +8424,14 @@
         <v>273</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AY1" s="6"/>
       <c r="CJ1" s="6"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
         <v>244</v>
@@ -8273,17 +8452,17 @@
         <v>367</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>254</v>
@@ -8308,7 +8487,7 @@
         <v>197</v>
       </c>
       <c r="Z2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>271</v>
@@ -8323,7 +8502,7 @@
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="W3" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -8331,12 +8510,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A446D1-4937-4B2D-AFB9-B44C63F04F96}">
   <dimension ref="A1:CJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8402,7 +8581,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -8414,7 +8593,7 @@
         <v>211</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>212</v>
@@ -8432,7 +8611,7 @@
         <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>191</v>
@@ -8447,7 +8626,7 @@
         <v>198</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>270</v>
@@ -8456,14 +8635,14 @@
         <v>273</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AY1" s="6"/>
       <c r="CJ1" s="6"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>244</v>
@@ -8484,17 +8663,17 @@
         <v>367</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>254</v>
@@ -8519,7 +8698,7 @@
         <v>197</v>
       </c>
       <c r="Z2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>271</v>
@@ -8531,7 +8710,7 @@
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="W3" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB3" t="s">
         <v>95</v>
@@ -8542,12 +8721,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E4BEF-EC3B-4052-8C30-80FB1A627D19}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8612,7 +8791,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>264</v>
@@ -8639,7 +8818,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>211</v>
@@ -8651,10 +8830,10 @@
         <v>49</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>270</v>
@@ -8671,7 +8850,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
@@ -8715,10 +8894,10 @@
         <v>354</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>271</v>

--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99CD103-D547-479D-BF26-63EC5BA3454A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD3B5C-3726-4635-94C9-5B380074EA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="31" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -48,14 +48,18 @@
     <sheet name="CC_CORP_TC032" sheetId="33" r:id="rId33"/>
     <sheet name="CC_CORP_TC033" sheetId="40" r:id="rId34"/>
     <sheet name="CC_CORP_TC034" sheetId="41" r:id="rId35"/>
-    <sheet name="CC_CORP_TC036" sheetId="42" r:id="rId36"/>
-    <sheet name="CC_CORP_TC038" sheetId="34" r:id="rId37"/>
-    <sheet name="CC_CORP_TC039" sheetId="35" r:id="rId38"/>
-    <sheet name="CC_CORP_TC040" sheetId="31" r:id="rId39"/>
+    <sheet name="CC_CORP_TC035" sheetId="47" r:id="rId36"/>
+    <sheet name="CC_CORP_TC036" sheetId="42" r:id="rId37"/>
+    <sheet name="CC_CORP_TC037" sheetId="43" r:id="rId38"/>
+    <sheet name="CC_CORP_TC038" sheetId="34" r:id="rId39"/>
+    <sheet name="CC_CORP_TC039" sheetId="35" r:id="rId40"/>
+    <sheet name="CC_CORP_TC040" sheetId="31" r:id="rId41"/>
+    <sheet name="CC_CORP_TC041" sheetId="48" r:id="rId42"/>
+    <sheet name="CC_CORP_TC042" sheetId="46" r:id="rId43"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -238,8 +242,66 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thangapalam, Shilpa</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{241E1AF3-9E2F-445D-A124-CC4328A6833B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same name as Payee name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{F234E12B-570A-42D3-ADDF-F55CB1B9CD24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same name as Create Payee Name</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="543">
   <si>
     <t>TestID</t>
   </si>
@@ -1114,9 +1176,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>kim</t>
-  </si>
-  <si>
     <t>CC_CORP_TC018</t>
   </si>
   <si>
@@ -1309,9 +1368,6 @@
     <t>*6834 - SDA - $654.11 (USD)</t>
   </si>
   <si>
-    <t>*1805 - DDA (12) - $5,000.00 (USD)</t>
-  </si>
-  <si>
     <t>*1805 - DDA</t>
   </si>
   <si>
@@ -1372,9 +1428,6 @@
     <t>01/26/2022</t>
   </si>
   <si>
-    <t>*8539 - DDA (BUS CKG         8539) - $3,322.80 (USD)</t>
-  </si>
-  <si>
     <t>*9257 - DDA (BUS CKG         9257) - $13,656.58 (USD)</t>
   </si>
   <si>
@@ -1655,6 +1708,228 @@
   </si>
   <si>
     <t>$13.00</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC037</t>
+  </si>
+  <si>
+    <t>Template1</t>
+  </si>
+  <si>
+    <t>Template2</t>
+  </si>
+  <si>
+    <t>Template3</t>
+  </si>
+  <si>
+    <t>Template4</t>
+  </si>
+  <si>
+    <t>Template5</t>
+  </si>
+  <si>
+    <t>ExistingMultipleWireTemplate</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC041</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC042</t>
+  </si>
+  <si>
+    <t>WireSeries</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC035</t>
+  </si>
+  <si>
+    <t>02/10/2022</t>
+  </si>
+  <si>
+    <t>ACHNew</t>
+  </si>
+  <si>
+    <t>Cassie</t>
+  </si>
+  <si>
+    <t>02/11/2022</t>
+  </si>
+  <si>
+    <t>Caudill</t>
+  </si>
+  <si>
+    <t>2/10/2022</t>
+  </si>
+  <si>
+    <t>1141805 - DDA (12) - $6,963.00 (USD)</t>
+  </si>
+  <si>
+    <t>423408 - Loans - $1,652,102.51 (USD)</t>
+  </si>
+  <si>
+    <t>8306834 - SDA - $624.12 (USD)</t>
+  </si>
+  <si>
+    <t>1141805 - DDA</t>
+  </si>
+  <si>
+    <t>423408 - Loans</t>
+  </si>
+  <si>
+    <t>8306834 - SDA</t>
+  </si>
+  <si>
+    <t>03/25/2022</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>DebitAccount1Review</t>
+  </si>
+  <si>
+    <t>1141805 - DDA (12)</t>
+  </si>
+  <si>
+    <t>Amount1Review</t>
+  </si>
+  <si>
+    <t>DebitAccount2Review</t>
+  </si>
+  <si>
+    <t>Amount2Review</t>
+  </si>
+  <si>
+    <t>DebitAccount3Review</t>
+  </si>
+  <si>
+    <t>Amount3Review</t>
+  </si>
+  <si>
+    <t>$33.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACH </t>
+  </si>
+  <si>
+    <t>Business (CCD)</t>
+  </si>
+  <si>
+    <t>Te$T data</t>
+  </si>
+  <si>
+    <t>1275844 - DDA (DCIS Operating NEW) (USD)</t>
+  </si>
+  <si>
+    <t>$2183286.00</t>
+  </si>
+  <si>
+    <t>Michael||Jose||Henry||Kane||David||Alex||Emma</t>
+  </si>
+  <si>
+    <t>987||234||934||567||912||999||111</t>
+  </si>
+  <si>
+    <t>9875||1568||4231||2342||9875||6543||2341</t>
+  </si>
+  <si>
+    <t>011000206||011000028||011000206||011000028||011000206||011000028||011000206</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA N.A||STATE STREET BOSTON||BANK OF AMERICA N.A||STATE STREET BOSTON||BANK OF AMERICA N.A||STATE STREET BOSTON||BANK OF AMERICA N.A</t>
+  </si>
+  <si>
+    <t>34887||87450||75000||60000||22222||39800||55500</t>
+  </si>
+  <si>
+    <t>test||test||test||test||test||test||test</t>
+  </si>
+  <si>
+    <t>Internet Authorization||Physical Authorization||Internet Authorization||Physical Authorization||Internet Authorization</t>
+  </si>
+  <si>
+    <t>Internet Authorization||Physical Authorization||Internet Authorization||Physical Authorization||Internet Authorization||Physical Authorization||Internet Authorization</t>
+  </si>
+  <si>
+    <t>175||145||244</t>
+  </si>
+  <si>
+    <t>011000206||011000028||011000206</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA N.A||STATE STREET BOSTON||BANK OF AMERICA N.A</t>
+  </si>
+  <si>
+    <t>No||No||No</t>
+  </si>
+  <si>
+    <t>test||test||test</t>
+  </si>
+  <si>
+    <t>14||15||11</t>
+  </si>
+  <si>
+    <t>142||151||111</t>
+  </si>
+  <si>
+    <t>2/16/2022</t>
+  </si>
+  <si>
+    <t>Mixed Debit and Credit</t>
+  </si>
+  <si>
+    <t>Credit||Credit||Debit||Debit||Credit||Debit</t>
+  </si>
+  <si>
+    <t>No||No||No||No||No||No||No</t>
+  </si>
+  <si>
+    <t>anini||treess||luthe</t>
+  </si>
+  <si>
+    <t>TemplateInfo</t>
+  </si>
+  <si>
+    <t>ACH</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>BankId</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>DebitType</t>
+  </si>
+  <si>
+    <t>Rein</t>
+  </si>
+  <si>
+    <t>2964</t>
+  </si>
+  <si>
+    <t>1288539 - DDA</t>
+  </si>
+  <si>
+    <t>1275844 - DDA</t>
+  </si>
+  <si>
+    <t>1288539</t>
+  </si>
+  <si>
+    <t>CurrentBalance</t>
+  </si>
+  <si>
+    <t>$3,220.98</t>
+  </si>
+  <si>
+    <t>1275844</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1939,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,6 +1973,14 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1750,10 +2033,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1789,8 +2073,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2085,13 +2371,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDC840-7BF6-43E0-9387-74045B013667}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,17 +2407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A97826-8FC6-49A5-BA9F-F29C9FFE4A4F}">
   <dimension ref="A1:DY5"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="103" width="31.7109375" customWidth="1"/>
-    <col min="104" max="106" width="26.5703125" customWidth="1"/>
-    <col min="107" max="119" width="37.5703125" customWidth="1"/>
-    <col min="120" max="123" width="26.7109375" customWidth="1"/>
-    <col min="124" max="130" width="35.85546875" customWidth="1"/>
+    <col min="1" max="103" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="104" max="106" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="107" max="119" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="120" max="123" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="124" max="130" customWidth="true" width="35.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2674,19 +2960,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="15" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="28.7109375" customWidth="1"/>
-    <col min="22" max="42" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="28.7109375" style="4" customWidth="1"/>
-    <col min="44" max="57" width="28.7109375" customWidth="1"/>
-    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" hidden="true" width="28.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="17" max="21" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="22" max="42" customWidth="true" hidden="true" width="28.7109375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="4" width="28.7109375" collapsed="true"/>
+    <col min="44" max="57" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2879,7 +3165,7 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>274</v>
@@ -2897,16 +3183,16 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AT2" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>274</v>
@@ -2958,10 +3244,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="68" width="29.85546875" customWidth="1"/>
-    <col min="69" max="75" width="28.5703125" customWidth="1"/>
-    <col min="76" max="80" width="18.42578125" customWidth="1"/>
-    <col min="81" max="81" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="68" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="69" max="75" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="76" max="80" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3262,7 +3548,7 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>74</v>
@@ -3310,7 +3596,7 @@
         <v>140</v>
       </c>
       <c r="CC2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3322,31 +3608,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B045698-DC01-420E-83B7-1C72FB099398}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="13" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.7109375" style="13" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="13" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="13" width="24.0" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="13" width="18.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="13" width="20.7109375" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="13" width="17.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="13" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="13" width="21.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="13" width="44.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="13" width="43.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="13" width="43.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="13" width="14.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="13" width="23.42578125" collapsed="true"/>
+    <col min="21" max="16384" style="13" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -3402,7 +3688,7 @@
         <v>215</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>270</v>
@@ -3422,26 +3708,26 @@
         <v>216</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F2" t="s">
         <v>284</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>265</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>229</v>
@@ -3459,10 +3745,10 @@
         <v>263</v>
       </c>
       <c r="S2" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="T2" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>403</v>
       </c>
       <c r="AC2" s="7"/>
       <c r="AU2" s="7"/>
@@ -3484,38 +3770,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3568,7 +3854,7 @@
         <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>238</v>
@@ -3616,13 +3902,13 @@
         <v>237</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>272</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AW1" s="6"/>
       <c r="CH1" s="6"/>
@@ -3644,10 +3930,10 @@
         <v>284</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
@@ -3673,7 +3959,7 @@
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>216</v>
@@ -3682,17 +3968,17 @@
         <v>244</v>
       </c>
       <c r="X2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>243</v>
@@ -3735,31 +4021,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3794,7 +4080,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -3821,7 +4107,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>191</v>
@@ -3830,7 +4116,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>198</v>
@@ -3862,14 +4148,14 @@
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>245</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>245</v>
@@ -3894,7 +4180,7 @@
         <v>256</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
@@ -3905,7 +4191,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3923,30 +4209,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3981,7 +4267,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -4008,7 +4294,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>191</v>
@@ -4017,7 +4303,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>198</v>
@@ -4051,17 +4337,17 @@
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>254</v>
@@ -4083,7 +4369,7 @@
         <v>256</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
@@ -4101,7 +4387,7 @@
     </row>
     <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="V3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4113,36 +4399,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCDBD05-31AF-4457-A4AD-D016F640CCB6}">
   <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4177,7 +4463,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -4204,7 +4490,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>191</v>
@@ -4213,7 +4499,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>198</v>
@@ -4247,17 +4533,17 @@
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>254</v>
@@ -4279,7 +4565,7 @@
         <v>256</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
@@ -4297,7 +4583,7 @@
     </row>
     <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="V3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4307,49 +4593,50 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510DA94-D336-4FBB-8C8F-C2DC3E57BE90}">
-  <dimension ref="A1:AD3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="112.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -4376,7 +4663,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>264</v>
@@ -4388,25 +4675,25 @@
         <v>209</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>270</v>
@@ -4418,25 +4705,19 @@
         <v>49</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD1" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>283</v>
       </c>
@@ -4444,73 +4725,146 @@
         <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>504</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>503</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>505</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>219</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>397</v>
+        <v>506</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>271</v>
+        <v>528</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>520</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="Z2" t="s">
         <v>197</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AA2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="X3" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>285</v>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H3" t="s">
+        <v>505</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S7" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" display="shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com" xr:uid="{DD1ECE0E-B1A9-4793-B3E3-7AB758431081}"/>
+    <hyperlink ref="W3" r:id="rId2" display="shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com" xr:uid="{BD9B21F0-8FFD-471C-ADC4-E2BC2A69E1A7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4524,34 +4878,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4559,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -4613,7 +4967,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>270</v>
@@ -4625,7 +4979,7 @@
         <v>49</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>198</v>
@@ -4640,18 +4994,18 @@
         <v>191</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
@@ -4663,29 +5017,29 @@
         <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>287</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>243</v>
@@ -4701,7 +5055,7 @@
         <v>271</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Y2" t="s">
         <v>197</v>
@@ -4715,13 +5069,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AC3" t="s">
         <v>285</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4731,32 +5085,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="51.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4805,28 +5160,31 @@
       <c r="P1" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>355</v>
+      <c r="B2" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>356</v>
+        <v>413</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="J2" t="s">
-        <v>358</v>
+        <v>537</v>
       </c>
       <c r="K2" t="s">
-        <v>357</v>
+        <v>538</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>59</v>
+        <v>415</v>
       </c>
       <c r="O2" t="s">
         <v>63</v>
@@ -4834,8 +5192,11 @@
       <c r="P2" t="s">
         <v>80</v>
       </c>
+      <c r="Q2" t="s">
+        <v>541</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -4877,33 +5238,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4911,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -4938,7 +5299,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>264</v>
@@ -4968,7 +5329,7 @@
         <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>270</v>
@@ -4992,15 +5353,15 @@
         <v>191</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
@@ -5012,13 +5373,13 @@
         <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
@@ -5026,16 +5387,16 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>287</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>243</v>
@@ -5061,12 +5422,12 @@
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AC3" t="s">
         <v>285</v>
@@ -5087,24 +5448,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.7109375" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5160,7 +5521,7 @@
         <v>215</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>270</v>
@@ -5189,17 +5550,17 @@
         <v>219</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>267</v>
@@ -5221,7 +5582,7 @@
         <v>271</v>
       </c>
       <c r="T2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -5233,38 +5594,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3FE77-7B3C-415F-91AA-024F59D8BADE}">
   <dimension ref="A1:CK3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5305,7 +5666,7 @@
         <v>208</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>210</v>
@@ -5320,7 +5681,7 @@
         <v>211</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>212</v>
@@ -5338,7 +5699,7 @@
         <v>215</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>191</v>
@@ -5363,7 +5724,7 @@
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
@@ -5372,43 +5733,43 @@
         <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H2" t="s">
         <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>286</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>243</v>
@@ -5424,7 +5785,7 @@
         <v>256</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AA2" t="s">
         <v>197</v>
@@ -5455,46 +5816,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98618334-E381-482C-990A-A06E5CC08B1F}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5532,7 +5893,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>210</v>
@@ -5544,7 +5905,7 @@
         <v>211</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>253</v>
@@ -5565,7 +5926,7 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>191</v>
@@ -5604,7 +5965,7 @@
         <v>237</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>272</v>
@@ -5612,7 +5973,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>244</v>
@@ -5625,13 +5986,13 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="X2" s="2" t="s">
@@ -5644,32 +6005,32 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>243</v>
@@ -5682,7 +6043,7 @@
       </c>
       <c r="W3" s="2"/>
       <c r="Y3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>271</v>
@@ -5707,41 +6068,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5779,7 +6140,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>210</v>
@@ -5791,7 +6152,7 @@
         <v>211</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>253</v>
@@ -5812,7 +6173,7 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>191</v>
@@ -5851,10 +6212,10 @@
         <v>237</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>272</v>
@@ -5864,7 +6225,7 @@
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>244</v>
@@ -5873,17 +6234,17 @@
         <v>241</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="X2" s="2" t="s">
@@ -5899,32 +6260,32 @@
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>243</v>
@@ -5937,7 +6298,7 @@
       </c>
       <c r="W3" s="2"/>
       <c r="Y3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>271</v>
@@ -5963,41 +6324,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6035,7 +6396,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>210</v>
@@ -6047,7 +6408,7 @@
         <v>211</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>253</v>
@@ -6068,7 +6429,7 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>191</v>
@@ -6107,10 +6468,10 @@
         <v>237</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>272</v>
@@ -6120,7 +6481,7 @@
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>244</v>
@@ -6129,17 +6490,17 @@
         <v>241</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="X2" s="2" t="s">
@@ -6155,32 +6516,32 @@
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>243</v>
@@ -6193,7 +6554,7 @@
       </c>
       <c r="W3" s="2"/>
       <c r="Y3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>271</v>
@@ -6211,28 +6572,31 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A9DBF0-FB95-4843-94BA-2CF99D6EDB4B}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6240,78 +6604,97 @@
         <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" t="s">
         <v>325</v>
       </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>326</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="P2" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6321,32 +6704,33 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA19BC-3B73-4A57-ACE8-BA121F922A15}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6354,108 +6738,115 @@
         <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" t="s">
+        <v>531</v>
+      </c>
+      <c r="N2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>339</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
         <v>324</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="P2" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" t="s">
-        <v>325</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" t="s">
         <v>326</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L3" t="s">
-        <v>327</v>
+      <c r="M3" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6469,21 +6860,21 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="12" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6491,108 +6882,108 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>211</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G2" t="s">
-        <v>350</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="P2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q2" t="s">
+        <v>350</v>
+      </c>
+      <c r="R2" t="s">
         <v>351</v>
-      </c>
-      <c r="R2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6606,32 +6997,32 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6639,114 +7030,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>232</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>211</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -6762,49 +7153,49 @@
         <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="T2" t="s">
+        <v>348</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="V2" t="s">
         <v>349</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="V2" t="s">
-        <v>350</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="AE2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG2" t="s">
         <v>351</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6817,22 +7208,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="45" width="18.7109375" customWidth="1"/>
-    <col min="46" max="47" width="20.7109375" customWidth="1"/>
-    <col min="48" max="48" width="34.28515625" customWidth="1"/>
-    <col min="49" max="50" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="22" max="45" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="49" max="50" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6995,7 +7386,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>274</v>
@@ -7013,7 +7404,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -7022,10 +7413,10 @@
         <v>72</v>
       </c>
       <c r="AS2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -7045,7 +7436,7 @@
         <v>73</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AV3" s="8" t="s">
         <v>73</v>
@@ -7067,26 +7458,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -7094,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7106,72 +7497,72 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
@@ -7180,46 +7571,46 @@
         <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" t="s">
         <v>351</v>
-      </c>
-      <c r="W2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7238,26 +7629,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -7265,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7277,75 +7668,75 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
@@ -7354,46 +7745,46 @@
         <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" t="s">
-        <v>350</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" t="s">
         <v>351</v>
-      </c>
-      <c r="W2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7404,214 +7795,220 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D198D465-AE02-44C5-9325-B3B3807E6DD5}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="34" max="35" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" t="s">
         <v>456</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B2" t="s">
-        <v>459</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2" s="2">
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="I2" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N2" t="s">
-        <v>340</v>
-      </c>
       <c r="O2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q2" t="s">
         <v>351</v>
       </c>
-      <c r="P2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>388</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" t="s">
+        <v>385</v>
+      </c>
+      <c r="T2" t="s">
         <v>197</v>
       </c>
-      <c r="T2" t="s">
-        <v>427</v>
-      </c>
       <c r="U2" t="s">
-        <v>461</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="X2" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="V2" t="s">
+        <v>458</v>
+      </c>
+      <c r="W2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -7619,16 +8016,17 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>458</v>
+      <c r="AF2" s="2"/>
+      <c r="AG2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R3" s="2" t="s">
-        <v>389</v>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -7638,159 +8036,166 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB433F1-5A33-4F6D-B11F-1C3343D5586F}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>426</v>
+      <c r="U1" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2" s="2">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="I2" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N2" t="s">
-        <v>340</v>
-      </c>
       <c r="O2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q2" t="s">
         <v>351</v>
       </c>
-      <c r="P2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>388</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" t="s">
+        <v>385</v>
+      </c>
+      <c r="T2" t="s">
         <v>197</v>
       </c>
-      <c r="T2" t="s">
-        <v>427</v>
+      <c r="U2" t="s">
+        <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="R3" s="2" t="s">
-        <v>389</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -7808,26 +8213,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -7835,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7847,121 +8252,121 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" t="s">
-        <v>350</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" t="s">
         <v>351</v>
-      </c>
-      <c r="W2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7980,26 +8385,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -8007,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -8019,121 +8424,121 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" t="s">
-        <v>350</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" t="s">
         <v>351</v>
-      </c>
-      <c r="W2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -8143,33 +8548,34 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B42C8BC-5399-49AF-97C4-BCE5DB8AFAFA}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE74AAB-0014-49C0-8F95-ADA779A8EBA4}">
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8177,58 +8583,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>337</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>191</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>411</v>
+        <v>49</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>198</v>
@@ -8236,60 +8642,229 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>351</v>
+      </c>
+      <c r="R2" t="s">
+        <v>385</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B42C8BC-5399-49AF-97C4-BCE5DB8AFAFA}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" t="s">
         <v>466</v>
       </c>
-      <c r="B2" t="s">
-        <v>469</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
         <v>329</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
       </c>
       <c r="G2" s="2">
         <v>9876</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="I2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" t="s">
         <v>326</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" t="s">
-        <v>327</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" t="s">
+        <v>326</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S2" t="s">
+        <v>385</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="P2" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="R2" t="s">
-        <v>388</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8299,7 +8874,213 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69456CCE-40B0-4787-90BC-9B640CED4DDF}">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="I2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K2" t="s">
+        <v>496</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M2" t="s">
+        <v>496</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="X2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R3" t="s">
+        <v>326</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V3" t="s">
+        <v>464</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2A8670-AD39-4A77-AECE-3C34ECDFC790}">
   <dimension ref="A1:CJ3"/>
   <sheetViews>
@@ -8309,33 +9090,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8370,7 +9151,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -8382,7 +9163,7 @@
         <v>211</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>212</v>
@@ -8400,7 +9181,7 @@
         <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>191</v>
@@ -8415,7 +9196,7 @@
         <v>198</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>270</v>
@@ -8424,14 +9205,14 @@
         <v>273</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AY1" s="6"/>
       <c r="CJ1" s="6"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>244</v>
@@ -8449,20 +9230,20 @@
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>254</v>
@@ -8487,7 +9268,7 @@
         <v>197</v>
       </c>
       <c r="Z2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>271</v>
@@ -8502,417 +9283,7 @@
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="W3" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A446D1-4937-4B2D-AFB9-B44C63F04F96}">
-  <dimension ref="A1:CJ3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AY1" s="6"/>
-      <c r="CJ1" s="6"/>
-    </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG2" s="2"/>
-      <c r="AY2" s="5"/>
-      <c r="BE2" s="3"/>
-      <c r="BJ2" s="3"/>
-    </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="W3" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E4BEF-EC3B-4052-8C30-80FB1A627D19}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>431</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="S3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="W3" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -8930,29 +9301,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="26" width="18.85546875" customWidth="1"/>
-    <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="18.85546875" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="18.85546875" customWidth="1"/>
-    <col min="39" max="39" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="47" width="18.85546875" customWidth="1"/>
-    <col min="48" max="48" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="18.85546875" customWidth="1"/>
-    <col min="51" max="51" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="19" max="26" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="29" max="33" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="35" max="38" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="43" max="47" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="49" max="50" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9115,7 +9486,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -9133,7 +9504,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -9145,10 +9516,10 @@
         <v>82</v>
       </c>
       <c r="AS2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AT2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AU2" t="s">
         <v>81</v>
@@ -9168,12 +9539,818 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A446D1-4937-4B2D-AFB9-B44C63F04F96}">
+  <dimension ref="A1:CJ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AY1" s="6"/>
+      <c r="CJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AY2" s="5"/>
+      <c r="BE2" s="3"/>
+      <c r="BJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E4BEF-EC3B-4052-8C30-80FB1A627D19}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C095A5A6-4A57-46D8-A887-167B869DCC31}">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB262B9-180B-4E8E-80BB-F511D71FA1B9}">
+  <dimension ref="A1:CC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR1" s="6"/>
+      <c r="CC1" s="6"/>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" t="s">
+        <v>479</v>
+      </c>
+      <c r="W2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AR2" s="5"/>
+      <c r="AX2" s="3"/>
+      <c r="BC2" s="3"/>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9187,8 +10364,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="56" width="23.7109375" customWidth="1"/>
-    <col min="57" max="60" width="24.5703125" customWidth="1"/>
+    <col min="1" max="56" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="57" max="60" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9450,19 +10627,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973B350-4CF3-4C2A-804A-DEE3D04411D2}">
   <dimension ref="A1:BN3"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AM16" sqref="AM16"/>
+    <sheetView topLeftCell="Q1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="15" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="39" width="32.85546875" customWidth="1"/>
-    <col min="40" max="40" width="32.85546875" style="4" customWidth="1"/>
-    <col min="41" max="54" width="32.85546875" customWidth="1"/>
-    <col min="55" max="61" width="17" customWidth="1"/>
-    <col min="62" max="66" width="29.7109375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" hidden="true" width="32.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="16" max="39" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="4" width="32.85546875" collapsed="true"/>
+    <col min="41" max="53" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="56" max="61" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="62" max="66" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9670,7 +10852,7 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>487</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -9688,7 +10870,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>371</v>
+        <v>489</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s">
@@ -9698,7 +10880,7 @@
         <v>95</v>
       </c>
       <c r="U2" t="s">
-        <v>364</v>
+        <v>488</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>275</v>
@@ -9713,13 +10895,13 @@
         <v>82</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>369</v>
+        <v>493</v>
       </c>
       <c r="AP2" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="AQ2" t="s">
-        <v>358</v>
+        <v>492</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
@@ -9731,10 +10913,10 @@
         <v>59</v>
       </c>
       <c r="AU2" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="AV2" t="s">
-        <v>366</v>
+        <v>491</v>
       </c>
       <c r="AW2" t="s">
         <v>97</v>
@@ -9743,7 +10925,7 @@
         <v>82</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BK2" t="s">
         <v>79</v>
@@ -9755,9 +10937,6 @@
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>115</v>
-      </c>
-      <c r="S3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -9770,19 +10949,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D6DB9E-D6BE-4CF9-8F3B-E46C1E6DFB58}">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="33.7109375" customWidth="1"/>
-    <col min="16" max="16" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="42" width="33.7109375" customWidth="1"/>
-    <col min="43" max="43" width="33.7109375" style="4" customWidth="1"/>
-    <col min="44" max="69" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="17" max="42" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="4" width="33.7109375" collapsed="true"/>
+    <col min="44" max="69" customWidth="true" width="33.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9999,7 +11178,7 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>487</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>274</v>
@@ -10016,7 +11195,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -10031,7 +11210,7 @@
         <v>95</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>373</v>
+        <v>488</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>289</v>
@@ -10049,13 +11228,13 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -10064,10 +11243,10 @@
         <v>59</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AZ2" t="s">
         <v>97</v>
@@ -10101,15 +11280,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="27" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="47" width="27" customWidth="1"/>
-    <col min="48" max="49" width="30.7109375" customWidth="1"/>
-    <col min="50" max="52" width="27" customWidth="1"/>
-    <col min="53" max="54" width="27" style="4" customWidth="1"/>
-    <col min="55" max="79" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="16" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="18" max="47" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="48" max="49" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="50" max="52" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="53" max="54" customWidth="true" style="4" width="27.0" collapsed="true"/>
+    <col min="55" max="79" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10356,7 +11535,7 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>274</v>
@@ -10368,7 +11547,7 @@
         <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>276</v>
@@ -10385,14 +11564,14 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="V2" t="s">
         <v>82</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AR2" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AS2" t="s">
         <v>95</v>
@@ -10407,13 +11586,13 @@
         <v>129</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BC2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BD2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BE2" t="s">
         <v>122</v>
@@ -10425,10 +11604,10 @@
         <v>59</v>
       </c>
       <c r="BH2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="BJ2" t="s">
         <v>81</v>
@@ -10462,21 +11641,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="24.42578125" customWidth="1"/>
-    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="42" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="24.42578125" style="4" customWidth="1"/>
-    <col min="44" max="65" width="24.42578125" customWidth="1"/>
-    <col min="66" max="66" width="37.85546875" customWidth="1"/>
-    <col min="67" max="67" width="25.140625" customWidth="1"/>
-    <col min="68" max="68" width="17" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="14" customWidth="true" hidden="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="22" max="42" customWidth="true" hidden="true" width="24.42578125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="4" width="24.42578125" collapsed="true"/>
+    <col min="44" max="65" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10693,7 +11872,7 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>274</v>
@@ -10711,7 +11890,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -10720,13 +11899,13 @@
         <v>72</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>

--- a/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/CommercialCenter/CorporateTD.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\CommercialCenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F77C2B-98AA-4545-A0E1-93BEEC06C294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD3B5C-3726-4635-94C9-5B380074EA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -48,13 +48,18 @@
     <sheet name="CC_CORP_TC032" sheetId="33" r:id="rId33"/>
     <sheet name="CC_CORP_TC033" sheetId="40" r:id="rId34"/>
     <sheet name="CC_CORP_TC034" sheetId="41" r:id="rId35"/>
-    <sheet name="CC_CORP_TC037" sheetId="34" r:id="rId36"/>
-    <sheet name="CC_CORP_TC038" sheetId="35" r:id="rId37"/>
-    <sheet name="CC_CORP_TC039" sheetId="31" r:id="rId38"/>
+    <sheet name="CC_CORP_TC035" sheetId="47" r:id="rId36"/>
+    <sheet name="CC_CORP_TC036" sheetId="42" r:id="rId37"/>
+    <sheet name="CC_CORP_TC037" sheetId="43" r:id="rId38"/>
+    <sheet name="CC_CORP_TC038" sheetId="34" r:id="rId39"/>
+    <sheet name="CC_CORP_TC039" sheetId="35" r:id="rId40"/>
+    <sheet name="CC_CORP_TC040" sheetId="31" r:id="rId41"/>
+    <sheet name="CC_CORP_TC041" sheetId="48" r:id="rId42"/>
+    <sheet name="CC_CORP_TC042" sheetId="46" r:id="rId43"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -237,8 +242,66 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thangapalam, Shilpa</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{241E1AF3-9E2F-445D-A124-CC4328A6833B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same name as Payee name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{F234E12B-570A-42D3-ADDF-F55CB1B9CD24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thangapalam, Shilpa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same name as Create Payee Name</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="543">
   <si>
     <t>TestID</t>
   </si>
@@ -1113,9 +1176,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>kim</t>
-  </si>
-  <si>
     <t>CC_CORP_TC018</t>
   </si>
   <si>
@@ -1308,9 +1368,6 @@
     <t>*6834 - SDA - $654.11 (USD)</t>
   </si>
   <si>
-    <t>*1805 - DDA (12) - $5,000.00 (USD)</t>
-  </si>
-  <si>
     <t>*1805 - DDA</t>
   </si>
   <si>
@@ -1371,9 +1428,6 @@
     <t>01/26/2022</t>
   </si>
   <si>
-    <t>*8539 - DDA (BUS CKG         8539) - $3,322.80 (USD)</t>
-  </si>
-  <si>
     <t>*9257 - DDA (BUS CKG         9257) - $13,656.58 (USD)</t>
   </si>
   <si>
@@ -1434,205 +1488,448 @@
     <t>*1805 - DDA (12) (USD)</t>
   </si>
   <si>
+    <t>02/01/2022</t>
+  </si>
+  <si>
+    <t>EditAddenda</t>
+  </si>
+  <si>
+    <t>testing||tester</t>
+  </si>
+  <si>
+    <t>06||11</t>
+  </si>
+  <si>
+    <t>John||Mathew</t>
+  </si>
+  <si>
+    <t>No||No</t>
+  </si>
+  <si>
+    <t>Test EntryData</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>$12.00</t>
+  </si>
+  <si>
+    <t>John1</t>
+  </si>
+  <si>
+    <t>PaymentAmount</t>
+  </si>
+  <si>
+    <t>$5.00</t>
+  </si>
+  <si>
+    <t>$8.00</t>
+  </si>
+  <si>
+    <t>AmountReview</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>$9.00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>$11.00</t>
+  </si>
+  <si>
+    <t>$10.00</t>
+  </si>
+  <si>
+    <t>Test CompanyData</t>
+  </si>
+  <si>
+    <t>Test Entry</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>$7.00</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>EditTransactionStatus</t>
+  </si>
+  <si>
+    <t>Pending Repair</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC038</t>
+  </si>
+  <si>
+    <t>CreateMixedDebitOrCredit</t>
+  </si>
+  <si>
+    <t>Update_CreateMixedDebitOrCredit</t>
+  </si>
+  <si>
+    <t>Pending Delivery</t>
+  </si>
+  <si>
+    <t>ExistWireTemplateName</t>
+  </si>
+  <si>
+    <t>New Wire</t>
+  </si>
+  <si>
+    <t>Update_Payee</t>
+  </si>
+  <si>
+    <t>Update_BeneIdType</t>
+  </si>
+  <si>
+    <t>Update_BeneID</t>
+  </si>
+  <si>
+    <t>Update_BeneAddress1</t>
+  </si>
+  <si>
+    <t>Update_BeneAddress2</t>
+  </si>
+  <si>
+    <t>Update_BeneCountry</t>
+  </si>
+  <si>
+    <t>Update_BeneBankIDType</t>
+  </si>
+  <si>
+    <t>Update_PaymentCurrency</t>
+  </si>
+  <si>
+    <t>Update_BeneBankID</t>
+  </si>
+  <si>
+    <t>Update_PurposeOfPayment</t>
+  </si>
+  <si>
+    <t>Update_BeneBankAddress1</t>
+  </si>
+  <si>
+    <t>Update_BeneBankAddress2</t>
+  </si>
+  <si>
+    <t>Terrance</t>
+  </si>
+  <si>
+    <t>ExistingWireTemplate</t>
+  </si>
+  <si>
+    <t>WireTemplate</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC029</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC030</t>
+  </si>
+  <si>
+    <t>WireNewTemplate</t>
+  </si>
+  <si>
+    <t>NewTester</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>NewTransfer</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC031</t>
+  </si>
+  <si>
+    <t>Update_DebitAccount</t>
+  </si>
+  <si>
+    <t>Update_BeneId</t>
+  </si>
+  <si>
+    <t>Near Metro</t>
+  </si>
+  <si>
+    <t>NewEdit</t>
+  </si>
+  <si>
+    <t>$14.00</t>
+  </si>
+  <si>
+    <t>EditTransferTest</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC033</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC034</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC040</t>
+  </si>
+  <si>
+    <t>ExistingPayee</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC036</t>
+  </si>
+  <si>
+    <t>shop rent</t>
+  </si>
+  <si>
+    <t>1141805 - DDA (12) (USD)</t>
+  </si>
+  <si>
+    <t>WirePayee1</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>$13.00</t>
+  </si>
+  <si>
     <t>CC_CORP_TC037</t>
   </si>
   <si>
-    <t>02/01/2022</t>
-  </si>
-  <si>
-    <t>EditAddenda</t>
-  </si>
-  <si>
-    <t>testing||tester</t>
-  </si>
-  <si>
-    <t>06||11</t>
-  </si>
-  <si>
-    <t>John||Mathew</t>
-  </si>
-  <si>
-    <t>No||No</t>
-  </si>
-  <si>
-    <t>Test EntryData</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>$12.00</t>
-  </si>
-  <si>
-    <t>John1</t>
-  </si>
-  <si>
-    <t>PaymentAmount</t>
-  </si>
-  <si>
-    <t>$5.00</t>
-  </si>
-  <si>
-    <t>$8.00</t>
-  </si>
-  <si>
-    <t>AmountReview</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>$9.00</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>$11.00</t>
-  </si>
-  <si>
-    <t>$10.00</t>
-  </si>
-  <si>
-    <t>Test CompanyData</t>
-  </si>
-  <si>
-    <t>Test Entry</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>$7.00</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>EditTransactionStatus</t>
-  </si>
-  <si>
-    <t>Pending Repair</t>
-  </si>
-  <si>
-    <t>CC_CORP_TC038</t>
-  </si>
-  <si>
-    <t>CreateMixedDebitOrCredit</t>
-  </si>
-  <si>
-    <t>Update_CreateMixedDebitOrCredit</t>
-  </si>
-  <si>
-    <t>Pending Delivery</t>
-  </si>
-  <si>
-    <t>ExistWireTemplateName</t>
-  </si>
-  <si>
-    <t>New Wire</t>
-  </si>
-  <si>
-    <t>Update_Payee</t>
-  </si>
-  <si>
-    <t>Update_BeneIdType</t>
-  </si>
-  <si>
-    <t>Update_BeneID</t>
-  </si>
-  <si>
-    <t>Update_BeneAddress1</t>
-  </si>
-  <si>
-    <t>Update_BeneAddress2</t>
-  </si>
-  <si>
-    <t>Update_BeneCountry</t>
-  </si>
-  <si>
-    <t>Update_BeneBankIDType</t>
-  </si>
-  <si>
-    <t>Update_PaymentCurrency</t>
-  </si>
-  <si>
-    <t>Update_BeneBankID</t>
-  </si>
-  <si>
-    <t>Update_PurposeOfPayment</t>
-  </si>
-  <si>
-    <t>Update_BeneBankAddress1</t>
-  </si>
-  <si>
-    <t>Update_BeneBankAddress2</t>
-  </si>
-  <si>
-    <t>Terrance</t>
-  </si>
-  <si>
-    <t>ExistingWireTemplate</t>
-  </si>
-  <si>
-    <t>WireTemplate</t>
-  </si>
-  <si>
-    <t>CC_CORP_TC029</t>
-  </si>
-  <si>
-    <t>CC_CORP_TC030</t>
-  </si>
-  <si>
-    <t>WireNewTemplate</t>
-  </si>
-  <si>
-    <t>NewTester</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>NewTransfer</t>
-  </si>
-  <si>
-    <t>CC_CORP_TC031</t>
-  </si>
-  <si>
-    <t>Update_DebitAccount</t>
-  </si>
-  <si>
-    <t>Update_BeneId</t>
-  </si>
-  <si>
-    <t>Near Metro</t>
-  </si>
-  <si>
-    <t>NewEdit</t>
-  </si>
-  <si>
-    <t>$14.00</t>
-  </si>
-  <si>
-    <t>EditTransferTest</t>
-  </si>
-  <si>
-    <t>CC_CORP_TC033</t>
-  </si>
-  <si>
-    <t>CC_CORP_TC034</t>
+    <t>Template1</t>
+  </si>
+  <si>
+    <t>Template2</t>
+  </si>
+  <si>
+    <t>Template3</t>
+  </si>
+  <si>
+    <t>Template4</t>
+  </si>
+  <si>
+    <t>Template5</t>
+  </si>
+  <si>
+    <t>ExistingMultipleWireTemplate</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC041</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC042</t>
+  </si>
+  <si>
+    <t>WireSeries</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC035</t>
+  </si>
+  <si>
+    <t>02/10/2022</t>
+  </si>
+  <si>
+    <t>ACHNew</t>
+  </si>
+  <si>
+    <t>Cassie</t>
+  </si>
+  <si>
+    <t>02/11/2022</t>
+  </si>
+  <si>
+    <t>Caudill</t>
+  </si>
+  <si>
+    <t>2/10/2022</t>
+  </si>
+  <si>
+    <t>1141805 - DDA (12) - $6,963.00 (USD)</t>
+  </si>
+  <si>
+    <t>423408 - Loans - $1,652,102.51 (USD)</t>
+  </si>
+  <si>
+    <t>8306834 - SDA - $624.12 (USD)</t>
+  </si>
+  <si>
+    <t>1141805 - DDA</t>
+  </si>
+  <si>
+    <t>423408 - Loans</t>
+  </si>
+  <si>
+    <t>8306834 - SDA</t>
+  </si>
+  <si>
+    <t>03/25/2022</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>DebitAccount1Review</t>
+  </si>
+  <si>
+    <t>1141805 - DDA (12)</t>
+  </si>
+  <si>
+    <t>Amount1Review</t>
+  </si>
+  <si>
+    <t>DebitAccount2Review</t>
+  </si>
+  <si>
+    <t>Amount2Review</t>
+  </si>
+  <si>
+    <t>DebitAccount3Review</t>
+  </si>
+  <si>
+    <t>Amount3Review</t>
+  </si>
+  <si>
+    <t>$33.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACH </t>
+  </si>
+  <si>
+    <t>Business (CCD)</t>
+  </si>
+  <si>
+    <t>Te$T data</t>
+  </si>
+  <si>
+    <t>1275844 - DDA (DCIS Operating NEW) (USD)</t>
+  </si>
+  <si>
+    <t>$2183286.00</t>
+  </si>
+  <si>
+    <t>Michael||Jose||Henry||Kane||David||Alex||Emma</t>
+  </si>
+  <si>
+    <t>987||234||934||567||912||999||111</t>
+  </si>
+  <si>
+    <t>9875||1568||4231||2342||9875||6543||2341</t>
+  </si>
+  <si>
+    <t>011000206||011000028||011000206||011000028||011000206||011000028||011000206</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA N.A||STATE STREET BOSTON||BANK OF AMERICA N.A||STATE STREET BOSTON||BANK OF AMERICA N.A||STATE STREET BOSTON||BANK OF AMERICA N.A</t>
+  </si>
+  <si>
+    <t>34887||87450||75000||60000||22222||39800||55500</t>
+  </si>
+  <si>
+    <t>test||test||test||test||test||test||test</t>
+  </si>
+  <si>
+    <t>Internet Authorization||Physical Authorization||Internet Authorization||Physical Authorization||Internet Authorization</t>
+  </si>
+  <si>
+    <t>Internet Authorization||Physical Authorization||Internet Authorization||Physical Authorization||Internet Authorization||Physical Authorization||Internet Authorization</t>
+  </si>
+  <si>
+    <t>175||145||244</t>
+  </si>
+  <si>
+    <t>011000206||011000028||011000206</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA N.A||STATE STREET BOSTON||BANK OF AMERICA N.A</t>
+  </si>
+  <si>
+    <t>No||No||No</t>
+  </si>
+  <si>
+    <t>test||test||test</t>
+  </si>
+  <si>
+    <t>14||15||11</t>
+  </si>
+  <si>
+    <t>142||151||111</t>
+  </si>
+  <si>
+    <t>2/16/2022</t>
+  </si>
+  <si>
+    <t>Mixed Debit and Credit</t>
+  </si>
+  <si>
+    <t>Credit||Credit||Debit||Debit||Credit||Debit</t>
+  </si>
+  <si>
+    <t>No||No||No||No||No||No||No</t>
+  </si>
+  <si>
+    <t>anini||treess||luthe</t>
+  </si>
+  <si>
+    <t>TemplateInfo</t>
+  </si>
+  <si>
+    <t>ACH</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>BankId</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>DebitType</t>
+  </si>
+  <si>
+    <t>Rein</t>
+  </si>
+  <si>
+    <t>2964</t>
+  </si>
+  <si>
+    <t>1288539 - DDA</t>
+  </si>
+  <si>
+    <t>1275844 - DDA</t>
+  </si>
+  <si>
+    <t>1288539</t>
+  </si>
+  <si>
+    <t>CurrentBalance</t>
+  </si>
+  <si>
+    <t>$3,220.98</t>
+  </si>
+  <si>
+    <t>1275844</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1939,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1676,6 +1973,14 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1728,10 +2033,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1767,8 +2073,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2063,13 +2371,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDC840-7BF6-43E0-9387-74045B013667}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,17 +2407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A97826-8FC6-49A5-BA9F-F29C9FFE4A4F}">
   <dimension ref="A1:DY5"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="103" width="31.7109375" customWidth="1"/>
-    <col min="104" max="106" width="26.5703125" customWidth="1"/>
-    <col min="107" max="119" width="37.5703125" customWidth="1"/>
-    <col min="120" max="123" width="26.7109375" customWidth="1"/>
-    <col min="124" max="130" width="35.85546875" customWidth="1"/>
+    <col min="1" max="103" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="104" max="106" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="107" max="119" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="120" max="123" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="124" max="130" customWidth="true" width="35.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2652,19 +2960,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="15" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="28.7109375" customWidth="1"/>
-    <col min="22" max="42" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="28.7109375" style="4" customWidth="1"/>
-    <col min="44" max="57" width="28.7109375" customWidth="1"/>
-    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" hidden="true" width="28.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="17" max="21" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="22" max="42" customWidth="true" hidden="true" width="28.7109375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="4" width="28.7109375" collapsed="true"/>
+    <col min="44" max="57" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2857,7 +3165,7 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>274</v>
@@ -2875,16 +3183,16 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AT2" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>274</v>
@@ -2936,10 +3244,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="68" width="29.85546875" customWidth="1"/>
-    <col min="69" max="75" width="28.5703125" customWidth="1"/>
-    <col min="76" max="80" width="18.42578125" customWidth="1"/>
-    <col min="81" max="81" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="68" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="69" max="75" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="76" max="80" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3240,7 +3548,7 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>74</v>
@@ -3288,7 +3596,7 @@
         <v>140</v>
       </c>
       <c r="CC2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3300,31 +3608,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B045698-DC01-420E-83B7-1C72FB099398}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="13" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.7109375" style="13" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="13" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="13" width="24.0" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="13" width="18.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="13" width="20.7109375" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="13" width="17.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="13" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="13" width="21.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="13" width="44.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="13" width="43.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="13" width="43.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="13" width="14.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="13" width="23.42578125" collapsed="true"/>
+    <col min="21" max="16384" style="13" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -3380,7 +3688,7 @@
         <v>215</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>270</v>
@@ -3400,26 +3708,26 @@
         <v>216</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F2" t="s">
         <v>284</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>265</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>229</v>
@@ -3437,10 +3745,10 @@
         <v>263</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AC2" s="7"/>
       <c r="AU2" s="7"/>
@@ -3462,38 +3770,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3546,7 +3854,7 @@
         <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>238</v>
@@ -3594,13 +3902,13 @@
         <v>237</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>272</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AW1" s="6"/>
       <c r="CH1" s="6"/>
@@ -3622,10 +3930,10 @@
         <v>284</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
@@ -3651,7 +3959,7 @@
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>216</v>
@@ -3660,17 +3968,17 @@
         <v>244</v>
       </c>
       <c r="X2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>243</v>
@@ -3713,31 +4021,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3772,7 +4080,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -3799,7 +4107,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>191</v>
@@ -3808,7 +4116,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>198</v>
@@ -3840,14 +4148,14 @@
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>245</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>245</v>
@@ -3872,7 +4180,7 @@
         <v>256</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
@@ -3883,7 +4191,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3901,30 +4209,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3959,7 +4267,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -3986,7 +4294,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>191</v>
@@ -3995,7 +4303,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>198</v>
@@ -4029,17 +4337,17 @@
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>254</v>
@@ -4061,7 +4369,7 @@
         <v>256</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
@@ -4079,7 +4387,7 @@
     </row>
     <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="V3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4091,36 +4399,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCDBD05-31AF-4457-A4AD-D016F640CCB6}">
   <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4155,7 +4463,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -4182,7 +4490,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>191</v>
@@ -4191,7 +4499,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>198</v>
@@ -4225,17 +4533,17 @@
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>254</v>
@@ -4257,7 +4565,7 @@
         <v>256</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
@@ -4275,7 +4583,7 @@
     </row>
     <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="V3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4285,49 +4593,50 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510DA94-D336-4FBB-8C8F-C2DC3E57BE90}">
-  <dimension ref="A1:AD3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="112.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -4354,7 +4663,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>264</v>
@@ -4366,25 +4675,25 @@
         <v>209</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>270</v>
@@ -4396,25 +4705,19 @@
         <v>49</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD1" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>283</v>
       </c>
@@ -4422,73 +4725,146 @@
         <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>504</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>503</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>505</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>219</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>397</v>
+        <v>506</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>271</v>
+        <v>528</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>520</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="Z2" t="s">
         <v>197</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AA2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="X3" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>285</v>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H3" t="s">
+        <v>505</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S7" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" display="shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com" xr:uid="{DD1ECE0E-B1A9-4793-B3E3-7AB758431081}"/>
+    <hyperlink ref="W3" r:id="rId2" display="shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com||shilpa.thangapala@fiserv.com" xr:uid="{BD9B21F0-8FFD-471C-ADC4-E2BC2A69E1A7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4502,34 +4878,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4537,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -4591,7 +4967,7 @@
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>270</v>
@@ -4603,7 +4979,7 @@
         <v>49</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>198</v>
@@ -4618,18 +4994,18 @@
         <v>191</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
@@ -4641,29 +5017,29 @@
         <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="12" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>287</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>243</v>
@@ -4679,7 +5055,7 @@
         <v>271</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Y2" t="s">
         <v>197</v>
@@ -4693,13 +5069,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AC3" t="s">
         <v>285</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4709,32 +5085,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="51.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4783,28 +5160,31 @@
       <c r="P1" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>355</v>
+      <c r="B2" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>356</v>
+        <v>413</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="J2" t="s">
-        <v>358</v>
+        <v>537</v>
       </c>
       <c r="K2" t="s">
-        <v>357</v>
+        <v>538</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>59</v>
+        <v>415</v>
       </c>
       <c r="O2" t="s">
         <v>63</v>
@@ -4812,8 +5192,11 @@
       <c r="P2" t="s">
         <v>80</v>
       </c>
+      <c r="Q2" t="s">
+        <v>541</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -4855,33 +5238,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4889,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>202</v>
@@ -4916,7 +5299,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>264</v>
@@ -4946,7 +5329,7 @@
         <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>270</v>
@@ -4970,15 +5353,15 @@
         <v>191</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
@@ -4990,13 +5373,13 @@
         <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
@@ -5004,16 +5387,16 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>287</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>243</v>
@@ -5039,12 +5422,12 @@
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AC3" t="s">
         <v>285</v>
@@ -5065,24 +5448,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.7109375" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5138,7 +5521,7 @@
         <v>215</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>270</v>
@@ -5167,17 +5550,17 @@
         <v>219</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>267</v>
@@ -5199,7 +5582,7 @@
         <v>271</v>
       </c>
       <c r="T2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -5211,38 +5594,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3FE77-7B3C-415F-91AA-024F59D8BADE}">
   <dimension ref="A1:CK3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5283,7 +5666,7 @@
         <v>208</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>210</v>
@@ -5298,7 +5681,7 @@
         <v>211</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>212</v>
@@ -5316,7 +5699,7 @@
         <v>215</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>191</v>
@@ -5341,7 +5724,7 @@
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
         <v>241</v>
@@ -5350,43 +5733,43 @@
         <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H2" t="s">
         <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>286</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>243</v>
@@ -5402,7 +5785,7 @@
         <v>256</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AA2" t="s">
         <v>197</v>
@@ -5433,46 +5816,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98618334-E381-482C-990A-A06E5CC08B1F}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5510,7 +5893,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>210</v>
@@ -5522,7 +5905,7 @@
         <v>211</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>253</v>
@@ -5543,7 +5926,7 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>191</v>
@@ -5582,7 +5965,7 @@
         <v>237</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>272</v>
@@ -5590,7 +5973,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>244</v>
@@ -5603,13 +5986,13 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="X2" s="2" t="s">
@@ -5622,32 +6005,32 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>243</v>
@@ -5660,7 +6043,7 @@
       </c>
       <c r="W3" s="2"/>
       <c r="Y3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>271</v>
@@ -5685,41 +6068,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5757,7 +6140,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>210</v>
@@ -5769,7 +6152,7 @@
         <v>211</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>253</v>
@@ -5790,7 +6173,7 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>191</v>
@@ -5829,10 +6212,10 @@
         <v>237</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>272</v>
@@ -5842,7 +6225,7 @@
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>244</v>
@@ -5851,17 +6234,17 @@
         <v>241</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="X2" s="2" t="s">
@@ -5877,32 +6260,32 @@
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>243</v>
@@ -5915,7 +6298,7 @@
       </c>
       <c r="W3" s="2"/>
       <c r="Y3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>271</v>
@@ -5941,41 +6324,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6013,7 +6396,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>210</v>
@@ -6025,7 +6408,7 @@
         <v>211</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>253</v>
@@ -6046,7 +6429,7 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>191</v>
@@ -6085,10 +6468,10 @@
         <v>237</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>272</v>
@@ -6098,7 +6481,7 @@
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>244</v>
@@ -6107,17 +6490,17 @@
         <v>241</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="X2" s="2" t="s">
@@ -6133,32 +6516,32 @@
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>243</v>
@@ -6171,7 +6554,7 @@
       </c>
       <c r="W3" s="2"/>
       <c r="Y3" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>271</v>
@@ -6189,28 +6572,31 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A9DBF0-FB95-4843-94BA-2CF99D6EDB4B}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6218,78 +6604,97 @@
         <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" t="s">
         <v>325</v>
       </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>326</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="P2" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6299,32 +6704,33 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA19BC-3B73-4A57-ACE8-BA121F922A15}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6332,108 +6738,115 @@
         <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" t="s">
+        <v>531</v>
+      </c>
+      <c r="N2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>339</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
         <v>324</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="P2" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" t="s">
-        <v>325</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" t="s">
         <v>326</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L3" t="s">
-        <v>327</v>
+      <c r="M3" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6447,21 +6860,21 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="12" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6469,108 +6882,108 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>211</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G2" t="s">
-        <v>350</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="P2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q2" t="s">
+        <v>350</v>
+      </c>
+      <c r="R2" t="s">
         <v>351</v>
-      </c>
-      <c r="R2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6584,32 +6997,32 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6617,114 +7030,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>232</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>211</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -6740,49 +7153,49 @@
         <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="T2" t="s">
+        <v>348</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="V2" t="s">
         <v>349</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="V2" t="s">
-        <v>350</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="AE2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG2" t="s">
         <v>351</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6795,22 +7208,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="45" width="18.7109375" customWidth="1"/>
-    <col min="46" max="47" width="20.7109375" customWidth="1"/>
-    <col min="48" max="48" width="34.28515625" customWidth="1"/>
-    <col min="49" max="50" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="22" max="45" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="49" max="50" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6973,7 +7386,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>274</v>
@@ -6991,7 +7404,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -7000,10 +7413,10 @@
         <v>72</v>
       </c>
       <c r="AS2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -7023,7 +7436,7 @@
         <v>73</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AV3" s="8" t="s">
         <v>73</v>
@@ -7045,26 +7458,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -7072,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7084,72 +7497,72 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
@@ -7158,46 +7571,46 @@
         <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" t="s">
         <v>351</v>
-      </c>
-      <c r="W2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7216,26 +7629,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -7243,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7255,75 +7668,75 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
@@ -7332,46 +7745,46 @@
         <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" t="s">
-        <v>350</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" t="s">
         <v>351</v>
-      </c>
-      <c r="W2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7382,214 +7795,220 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D198D465-AE02-44C5-9325-B3B3807E6DD5}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="34" max="35" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>446</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" t="s">
         <v>456</v>
       </c>
-      <c r="B2" t="s">
-        <v>460</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2" s="2">
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="I2" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N2" t="s">
-        <v>340</v>
-      </c>
       <c r="O2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q2" t="s">
         <v>351</v>
       </c>
-      <c r="P2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>388</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" t="s">
+        <v>385</v>
+      </c>
+      <c r="T2" t="s">
         <v>197</v>
       </c>
-      <c r="T2" t="s">
-        <v>428</v>
-      </c>
       <c r="U2" t="s">
-        <v>462</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="X2" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="V2" t="s">
+        <v>458</v>
+      </c>
+      <c r="W2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -7597,16 +8016,17 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" t="s">
-        <v>454</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>459</v>
+      <c r="AF2" s="2"/>
+      <c r="AG2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R3" s="2" t="s">
-        <v>389</v>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -7616,159 +8036,166 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB433F1-5A33-4F6D-B11F-1C3343D5586F}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>427</v>
+      <c r="U1" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2" s="2">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="I2" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N2" t="s">
-        <v>340</v>
-      </c>
       <c r="O2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q2" t="s">
         <v>351</v>
       </c>
-      <c r="P2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>388</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" t="s">
+        <v>385</v>
+      </c>
+      <c r="T2" t="s">
         <v>197</v>
       </c>
-      <c r="T2" t="s">
-        <v>428</v>
+      <c r="U2" t="s">
+        <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="R3" s="2" t="s">
-        <v>389</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -7786,26 +8213,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -7813,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7825,121 +8252,121 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" t="s">
-        <v>350</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" t="s">
         <v>351</v>
-      </c>
-      <c r="W2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7952,32 +8379,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0FB0E1-F141-4AB2-9B55-D19558FA50BC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -7985,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>250</v>
@@ -7997,121 +8424,121 @@
         <v>191</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" t="s">
-        <v>350</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" t="s">
         <v>351</v>
-      </c>
-      <c r="W2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -8121,42 +8548,575 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE74AAB-0014-49C0-8F95-ADA779A8EBA4}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>351</v>
+      </c>
+      <c r="R2" t="s">
+        <v>385</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B42C8BC-5399-49AF-97C4-BCE5DB8AFAFA}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9876</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="I2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" t="s">
+        <v>326</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S2" t="s">
+        <v>385</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69456CCE-40B0-4787-90BC-9B640CED4DDF}">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="I2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K2" t="s">
+        <v>496</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M2" t="s">
+        <v>496</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="X2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R3" t="s">
+        <v>326</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V3" t="s">
+        <v>464</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2A8670-AD39-4A77-AECE-3C34ECDFC790}">
   <dimension ref="A1:CJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8191,7 +9151,7 @@
         <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>210</v>
@@ -8203,7 +9163,7 @@
         <v>211</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>212</v>
@@ -8221,7 +9181,7 @@
         <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>191</v>
@@ -8236,7 +9196,7 @@
         <v>198</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>270</v>
@@ -8245,14 +9205,14 @@
         <v>273</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AY1" s="6"/>
       <c r="CJ1" s="6"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>244</v>
@@ -8270,20 +9230,20 @@
         <v>252</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>254</v>
@@ -8308,7 +9268,7 @@
         <v>197</v>
       </c>
       <c r="Z2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>271</v>
@@ -8323,417 +9283,7 @@
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="W3" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A446D1-4937-4B2D-AFB9-B44C63F04F96}">
-  <dimension ref="A1:CJ3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AY1" s="6"/>
-      <c r="CJ1" s="6"/>
-    </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG2" s="2"/>
-      <c r="AY2" s="5"/>
-      <c r="BE2" s="3"/>
-      <c r="BJ2" s="3"/>
-    </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="W3" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E4BEF-EC3B-4052-8C30-80FB1A627D19}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>432</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="S3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="W3" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -8751,29 +9301,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="26" width="18.85546875" customWidth="1"/>
-    <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="18.85546875" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="18.85546875" customWidth="1"/>
-    <col min="39" max="39" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="47" width="18.85546875" customWidth="1"/>
-    <col min="48" max="48" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="18.85546875" customWidth="1"/>
-    <col min="51" max="51" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="19" max="26" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="29" max="33" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="35" max="38" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="43" max="47" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="49" max="50" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8936,7 +9486,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -8954,7 +9504,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -8966,10 +9516,10 @@
         <v>82</v>
       </c>
       <c r="AS2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AT2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AU2" t="s">
         <v>81</v>
@@ -8989,12 +9539,818 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A446D1-4937-4B2D-AFB9-B44C63F04F96}">
+  <dimension ref="A1:CJ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AY1" s="6"/>
+      <c r="CJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AY2" s="5"/>
+      <c r="BE2" s="3"/>
+      <c r="BJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E4BEF-EC3B-4052-8C30-80FB1A627D19}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C095A5A6-4A57-46D8-A887-167B869DCC31}">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB262B9-180B-4E8E-80BB-F511D71FA1B9}">
+  <dimension ref="A1:CC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR1" s="6"/>
+      <c r="CC1" s="6"/>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" t="s">
+        <v>479</v>
+      </c>
+      <c r="W2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AR2" s="5"/>
+      <c r="AX2" s="3"/>
+      <c r="BC2" s="3"/>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9008,8 +10364,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="56" width="23.7109375" customWidth="1"/>
-    <col min="57" max="60" width="24.5703125" customWidth="1"/>
+    <col min="1" max="56" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="57" max="60" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9271,19 +10627,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973B350-4CF3-4C2A-804A-DEE3D04411D2}">
   <dimension ref="A1:BN3"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AM16" sqref="AM16"/>
+    <sheetView topLeftCell="Q1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="15" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="39" width="32.85546875" customWidth="1"/>
-    <col min="40" max="40" width="32.85546875" style="4" customWidth="1"/>
-    <col min="41" max="54" width="32.85546875" customWidth="1"/>
-    <col min="55" max="61" width="17" customWidth="1"/>
-    <col min="62" max="66" width="29.7109375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" hidden="true" width="32.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="16" max="39" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="4" width="32.85546875" collapsed="true"/>
+    <col min="41" max="53" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="56" max="61" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="62" max="66" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9491,7 +10852,7 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>487</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -9509,7 +10870,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>371</v>
+        <v>489</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s">
@@ -9519,7 +10880,7 @@
         <v>95</v>
       </c>
       <c r="U2" t="s">
-        <v>364</v>
+        <v>488</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>275</v>
@@ -9534,13 +10895,13 @@
         <v>82</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>369</v>
+        <v>493</v>
       </c>
       <c r="AP2" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="AQ2" t="s">
-        <v>358</v>
+        <v>492</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
@@ -9552,10 +10913,10 @@
         <v>59</v>
       </c>
       <c r="AU2" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="AV2" t="s">
-        <v>366</v>
+        <v>491</v>
       </c>
       <c r="AW2" t="s">
         <v>97</v>
@@ -9564,7 +10925,7 @@
         <v>82</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BK2" t="s">
         <v>79</v>
@@ -9576,9 +10937,6 @@
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>115</v>
-      </c>
-      <c r="S3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -9591,19 +10949,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D6DB9E-D6BE-4CF9-8F3B-E46C1E6DFB58}">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="33.7109375" customWidth="1"/>
-    <col min="16" max="16" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="42" width="33.7109375" customWidth="1"/>
-    <col min="43" max="43" width="33.7109375" style="4" customWidth="1"/>
-    <col min="44" max="69" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="17" max="42" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="4" width="33.7109375" collapsed="true"/>
+    <col min="44" max="69" customWidth="true" width="33.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9820,7 +11178,7 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>487</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>274</v>
@@ -9837,7 +11195,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -9852,7 +11210,7 @@
         <v>95</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>373</v>
+        <v>488</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>289</v>
@@ -9870,13 +11228,13 @@
         <v>82</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
@@ -9885,10 +11243,10 @@
         <v>59</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AZ2" t="s">
         <v>97</v>
@@ -9922,15 +11280,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="27" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="47" width="27" customWidth="1"/>
-    <col min="48" max="49" width="30.7109375" customWidth="1"/>
-    <col min="50" max="52" width="27" customWidth="1"/>
-    <col min="53" max="54" width="27" style="4" customWidth="1"/>
-    <col min="55" max="79" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="16" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="18" max="47" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="48" max="49" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="50" max="52" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="53" max="54" customWidth="true" style="4" width="27.0" collapsed="true"/>
+    <col min="55" max="79" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10177,7 +11535,7 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>274</v>
@@ -10189,7 +11547,7 @@
         <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>276</v>
@@ -10206,14 +11564,14 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="V2" t="s">
         <v>82</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AR2" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AS2" t="s">
         <v>95</v>
@@ -10228,13 +11586,13 @@
         <v>129</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BC2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BD2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BE2" t="s">
         <v>122</v>
@@ -10246,10 +11604,10 @@
         <v>59</v>
       </c>
       <c r="BH2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="BJ2" t="s">
         <v>81</v>
@@ -10283,21 +11641,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="24.42578125" customWidth="1"/>
-    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="42" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="24.42578125" style="4" customWidth="1"/>
-    <col min="44" max="65" width="24.42578125" customWidth="1"/>
-    <col min="66" max="66" width="37.85546875" customWidth="1"/>
-    <col min="67" max="67" width="25.140625" customWidth="1"/>
-    <col min="68" max="68" width="17" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="14" customWidth="true" hidden="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="22" max="42" customWidth="true" hidden="true" width="24.42578125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="4" width="24.42578125" collapsed="true"/>
+    <col min="44" max="65" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10514,7 +11872,7 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>274</v>
@@ -10532,7 +11890,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S2" t="s">
         <v>75</v>
@@ -10541,13 +11899,13 @@
         <v>72</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AU2" t="s">
         <v>72</v>
